--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14497,7 +14497,7 @@
         <v>111</v>
       </c>
       <c r="B52" s="5">
-        <v>0.00026315789473684215</v>
+        <v>0.000263158</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -14512,7 +14512,7 @@
         <v>112</v>
       </c>
       <c r="B53" s="5">
-        <v>0.0003289473684210526</v>
+        <v>0.000328947</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -14527,7 +14527,7 @@
         <v>113</v>
       </c>
       <c r="B54" s="243">
-        <v>0.00012988683127572017</v>
+        <v>0.000129887</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -14542,7 +14542,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="242">
-        <v>3.384232185401776e-08</v>
+        <v>3.38423e-08</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -14557,7 +14557,7 @@
         <v>115</v>
       </c>
       <c r="B56" s="5">
-        <v>0.00013208658219623134</v>
+        <v>0.000132087</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -14572,7 +14572,7 @@
         <v>116</v>
       </c>
       <c r="B57" s="5">
-        <v>0.00012626570283734027</v>
+        <v>0.000126266</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -14587,7 +14587,7 @@
         <v>117</v>
       </c>
       <c r="B58" s="5">
-        <v>0.00012968377734459607</v>
+        <v>0.000129684</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -14602,7 +14602,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="5">
-        <v>0.00012626570283734027</v>
+        <v>0.000126266</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -14617,7 +14617,7 @@
         <v>119</v>
       </c>
       <c r="B60" s="5">
-        <v>0.00017858593242365173</v>
+        <v>0.000178586</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -14632,7 +14632,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="5">
-        <v>0.00016887318605154862</v>
+        <v>0.000168873</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -14647,7 +14647,7 @@
         <v>121</v>
       </c>
       <c r="B62" s="5">
-        <v>0.0001469095191682911</v>
+        <v>0.00014691</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14725,7 +14725,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="244">
-        <v>433.3333333333333</v>
+        <v>433.333</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14740,7 +14740,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="244">
-        <v>172.22222222222223</v>
+        <v>172.222</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -14755,7 +14755,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="244">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14770,7 +14770,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="244">
-        <v>294.44444444444446</v>
+        <v>294.444</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -14785,7 +14785,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="244">
-        <v>277.77777777777777</v>
+        <v>277.778</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -14800,7 +14800,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="244">
-        <v>483.33333333333337</v>
+        <v>483.333</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -14878,7 +14878,7 @@
         <v>119</v>
       </c>
       <c r="B79" s="13">
-        <v>20.000271801908607</v>
+        <v>20.0003</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -14893,7 +14893,7 @@
         <v>120</v>
       </c>
       <c r="B80" s="13">
-        <v>18.536820123570024</v>
+        <v>18.5368</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -14908,7 +14908,7 @@
         <v>121</v>
       </c>
       <c r="B81" s="13">
-        <v>15.3750299090923</v>
+        <v>15.375</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -14986,7 +14986,7 @@
         <v>119</v>
       </c>
       <c r="B87" s="13">
-        <v>20.001408372470884</v>
+        <v>20.0014</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
@@ -15001,7 +15001,7 @@
         <v>120</v>
       </c>
       <c r="B88" s="13">
-        <v>20.00140801600231</v>
+        <v>20.0014</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
@@ -15016,7 +15016,7 @@
         <v>121</v>
       </c>
       <c r="B89" s="13">
-        <v>20.001411402225735</v>
+        <v>20.0014</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
@@ -15094,7 +15094,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="13">
-        <v>19.9999999999998</v>
+        <v>20</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
@@ -15109,7 +15109,7 @@
         <v>120</v>
       </c>
       <c r="B96" s="13">
-        <v>14.999999999999822</v>
+        <v>15</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
@@ -15124,7 +15124,7 @@
         <v>121</v>
       </c>
       <c r="B97" s="13">
-        <v>1.8576146684294725</v>
+        <v>1.85761</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -10824,7 +10824,6 @@
     <row r="7" spans="2:2" s="1" customFormat="1" ht="15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="15"/>
     <row r="9" spans="1:2" s="1" customFormat="1" ht="15">
       <c r="A9" s="1" t="s">
         <v>20</v>
@@ -16333,7 +16332,6 @@
       <c r="C20" s="119"/>
       <c r="D20" s="119"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:4" customFormat="false" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="129" t="s">
         <v>68</v>
@@ -16814,7 +16812,6 @@
       </c>
       <c r="E29" s="383"/>
     </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:F1"/>
@@ -24805,7 +24802,6 @@
     <row r="6" spans="5:5" customFormat="false" ht="15">
       <c r="E6" s="101"/>
     </row>
-    <row r="8" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="9" spans="1:8" customFormat="false" ht="13.5" thickBot="1">
       <c r="A9" s="94" t="s">
         <v>23</v>
@@ -25165,7 +25161,6 @@
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
     </row>
-    <row r="25" spans="1:13" ht="13.5" thickBot="1"/>
     <row r="26" spans="1:13" customFormat="false" ht="15">
       <c r="A26" s="33"/>
       <c r="B26" s="63" t="str">
@@ -25912,7 +25907,6 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.5" thickBot="1"/>
     <row r="43" spans="1:5" customFormat="false" ht="15.75">
       <c r="A43" s="49"/>
       <c r="B43" s="71" t="str">
@@ -26111,7 +26105,6 @@
     <row r="54" spans="1:1" customFormat="false">
       <c r="A54" s="36"/>
     </row>
-    <row r="55" spans="1:13" ht="13.5" thickBot="1"/>
     <row r="56" spans="1:13" customFormat="false" ht="15.75">
       <c r="A56" s="49"/>
       <c r="B56" s="71" t="str">

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,7 +13776,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 8.8.0</v>
+        <v>EnergyPlus 8.9.0</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>9/30/2017</v>
+        <v>3/29/2018</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>10/04/2017</v>
+        <v>4/04/2018</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,7 +13776,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 8.9.0</v>
+        <v>EnergyPlus 9.0.1</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>3/29/2018</v>
+        <v>10/9/2018</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>4/04/2018</v>
+        <v>10/21/2018</v>
       </c>
       <c r="K5" s="109"/>
     </row>
@@ -14085,7 +14085,7 @@
         <v>114</v>
       </c>
       <c r="B23" s="13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -14313,7 +14313,7 @@
         <v>114</v>
       </c>
       <c r="B39" s="13">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -14541,7 +14541,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="242">
-        <v>3.38423e-08</v>
+        <v>3.72266e-07</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,7 +13776,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 9.0.1</v>
+        <v>EnergyPlus 9.1.0</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>10/9/2018</v>
+        <v>3/31/2019</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>10/21/2018</v>
+        <v>04/15/2019</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>04/15/2019</v>
+        <v>04/18/2019</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,7 +13776,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 9.1.0</v>
+        <v>EnergyPlus 9.2.0</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>3/31/2019</v>
+        <v>9/27/2019</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>03/31/2020</v>
+        <v>03/27/2020</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>03/31/2020</v>
+        <v>05/19/2020</v>
       </c>
       <c r="K5" s="109"/>
     </row>
@@ -14085,7 +14085,7 @@
         <v>114</v>
       </c>
       <c r="B23" s="13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -14160,7 +14160,7 @@
         <v>119</v>
       </c>
       <c r="B28" s="13">
-        <v>43.033</v>
+        <v>43.034</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -14175,7 +14175,7 @@
         <v>120</v>
       </c>
       <c r="B29" s="13">
-        <v>40.741</v>
+        <v>40.742</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -14190,7 +14190,7 @@
         <v>121</v>
       </c>
       <c r="B30" s="13">
-        <v>35.814</v>
+        <v>35.815</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -14313,7 +14313,7 @@
         <v>114</v>
       </c>
       <c r="B39" s="13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -14418,7 +14418,7 @@
         <v>121</v>
       </c>
       <c r="B46" s="13">
-        <v>43.41</v>
+        <v>43.42</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -14541,7 +14541,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="242">
-        <v>3.38423e-08</v>
+        <v>0</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -14646,7 +14646,7 @@
         <v>121</v>
       </c>
       <c r="B62" s="5">
-        <v>0.00014691</v>
+        <v>0.000146943</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14907,7 +14907,7 @@
         <v>121</v>
       </c>
       <c r="B81" s="13">
-        <v>15.375</v>
+        <v>15.3747</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,7 +13776,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 9.3.0</v>
+        <v>EnergyPlus 9.4.0</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>03/27/2020</v>
+        <v>09/29/2020</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>05/19/2020</v>
+        <v>10/01/2020</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>10/01/2020</v>
+        <v>10/19/2020</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,7 +13776,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 9.4.0</v>
+        <v>EnergyPlus 9.5.0</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>09/29/2020</v>
+        <v>03/31/2021</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>10/19/2020</v>
+        <v>05/08/2021</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>03/31/2021</v>
+        <v>03/30/2021</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>05/08/2021</v>
+        <v>05/04/2021</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,7 +13776,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 9.5.0</v>
+        <v>EnergyPlus 9.6.0</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>03/30/2021</v>
+        <v>09/23/21</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>05/04/2021</v>
+        <v>01/20/2022</v>
       </c>
       <c r="K5" s="109"/>
     </row>
@@ -14160,7 +14160,7 @@
         <v>119</v>
       </c>
       <c r="B28" s="13">
-        <v>43.034</v>
+        <v>43.002</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -14175,7 +14175,7 @@
         <v>120</v>
       </c>
       <c r="B29" s="13">
-        <v>40.742</v>
+        <v>40.71</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -14190,7 +14190,7 @@
         <v>121</v>
       </c>
       <c r="B30" s="13">
-        <v>35.815</v>
+        <v>35.789</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -14388,7 +14388,7 @@
         <v>119</v>
       </c>
       <c r="B44" s="13">
-        <v>52.77</v>
+        <v>52.73</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -14403,7 +14403,7 @@
         <v>120</v>
       </c>
       <c r="B45" s="13">
-        <v>49.9</v>
+        <v>49.86</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -14418,7 +14418,7 @@
         <v>121</v>
       </c>
       <c r="B46" s="13">
-        <v>43.42</v>
+        <v>43.38</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -14616,7 +14616,7 @@
         <v>119</v>
       </c>
       <c r="B60" s="5">
-        <v>0.000178586</v>
+        <v>0.000178451</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -14631,7 +14631,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="5">
-        <v>0.000168873</v>
+        <v>0.000168738</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -14646,7 +14646,7 @@
         <v>121</v>
       </c>
       <c r="B62" s="5">
-        <v>0.000146943</v>
+        <v>0.000146808</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14892,7 +14892,7 @@
         <v>120</v>
       </c>
       <c r="B80" s="13">
-        <v>18.5368</v>
+        <v>18.5369</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -14907,7 +14907,7 @@
         <v>121</v>
       </c>
       <c r="B81" s="13">
-        <v>15.3747</v>
+        <v>15.3792</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,7 +13776,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 9.6.0</v>
+        <v>EnergyPlus 22.1</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,7 +13795,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>09/23/21</v>
+        <v>03/29/22</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13834,7 +13834,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>01/20/2022</v>
+        <v>05/05/2022</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JN\D\e\Ashrae\STD140\140-2020-CM\AccFiles-140-2020\Sec5-4Files\Informative Materials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="75" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="420" yWindow="1635" windowWidth="37530" windowHeight="17295"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="17" r:id="rId5"/>
@@ -36,7 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Title Page'!$A$5:$A$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">Tables!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -135,9 +140,6 @@
   </si>
   <si>
     <t>EnergyPlus</t>
-  </si>
-  <si>
-    <t>RESULTS5-4.XLS</t>
   </si>
   <si>
     <t>FURNACE LOAD</t>
@@ -279,9 +281,6 @@
   </si>
   <si>
     <t>GARD Analytics, USA</t>
-  </si>
-  <si>
-    <t>Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</t>
   </si>
   <si>
     <t>EnergyPlus 1.0.2.008</t>
@@ -797,12 +796,6 @@
     <t>Gives locations in participant spreadsheets (.xls)</t>
   </si>
   <si>
-    <t>Output spreadsheet for HVAC BESTEST.  See RESULTS5-4.DOC for spreadsheet navigation.</t>
-  </si>
-  <si>
-    <t>SHEET GUIDE: (see RESULTS5-4.DOC for spreadsheet navigation)</t>
-  </si>
-  <si>
     <t>Program Name for Tables and Charts (short):</t>
   </si>
   <si>
@@ -1104,12 +1097,6 @@
     <t>"Title Page" : Sets headers for tables and charts and provides cover sheet to example results or new comparison results.  See instructions on page.</t>
   </si>
   <si>
-    <t>"Table&amp;FigureList" : Listing of informative Annex B16, Section B16.6 Tables and Figures with locations</t>
-  </si>
-  <si>
-    <t>"Tables" : Formatted informative Annex B16, Section B16.6 result tables</t>
-  </si>
-  <si>
     <t>"Fig B16.6-1 LOAD" through "Fig B16.6-7 MIN T" : Informative Annex B16, Section B16.6 figures</t>
   </si>
   <si>
@@ -1134,9 +1121,6 @@
     <t>New result data can be entered on sheet "YourData".  The format for the results data is identical to the Standard Output Report (Sec5-4out.XLS).</t>
   </si>
   <si>
-    <t>"Program List" : Documentation of simulation programs used to produce informative Annex B16, Section B16.6 example results</t>
-  </si>
-  <si>
     <t>"Q-Chart Data": Unformatted data compilation, all programs.  Used by Charts.</t>
   </si>
   <si>
@@ -1153,9 +1137,6 @@
   </si>
   <si>
     <t xml:space="preserve">        DOE21E: Example Results for DOE 2.1E, version 107, submitted by CANMET Energy Technology Centre, Natural resources Canada, Canada (CETC)</t>
-  </si>
-  <si>
-    <t>DOE-2.1E version 107</t>
   </si>
   <si>
     <r>
@@ -1233,13 +1214,37 @@
     <t>* Abs[ (Max-Min) / (Analytic Solution) ]</t>
   </si>
   <si>
-    <t>ASHRAE Standard 140-2014</t>
+    <t>RESULTS5-4.XLSX</t>
+  </si>
+  <si>
+    <t>Output spreadsheet for HVAC BESTEST.  See RESULTS5-4.DOCX for spreadsheet navigation.</t>
+  </si>
+  <si>
+    <t>SHEET GUIDE: (see RESULTS5-4.DOCX for spreadsheet navigation)</t>
+  </si>
+  <si>
+    <t>"Program List" : Documentation of simulation programs used to produce Informative Annex B16, Section B16.6 example results</t>
+  </si>
+  <si>
+    <t>"Table&amp;FigureList" : Listing of Informative Annex B16, Section B16.6 Tables and Figures with locations</t>
+  </si>
+  <si>
+    <t>"Tables" : Formatted Informative Annex B16, Section B16.6 result tables</t>
+  </si>
+  <si>
+    <t>Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</t>
+  </si>
+  <si>
+    <t>DOE-2.1E version c133</t>
+  </si>
+  <si>
+    <t>ASHRAE Standard 140-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
@@ -3363,6 +3368,12 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="74" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3386,12 +3397,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3433,12 +3438,30 @@
     </dxf>
   </dxfs>
   <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3472,6 +3495,7 @@
           <c:y val="6.5252854812398092E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -3479,6 +3503,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3493,6 +3518,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3523,6 +3549,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -3606,6 +3633,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EF9-4998-8594-57071C0A9CA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3637,6 +3669,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -3720,6 +3753,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EF9-4998-8594-57071C0A9CA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3751,6 +3789,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -3834,6 +3873,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EF9-4998-8594-57071C0A9CA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3860,6 +3904,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'Q-Chart Data'!$H$9:$H$16</c:f>
@@ -3893,6 +3938,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9EF9-4998-8594-57071C0A9CA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3919,6 +3969,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -4002,18 +4053,34 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9EF9-4998-8594-57071C0A9CA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="84596608"/>
-        <c:axId val="84598144"/>
+        <c:axId val="80366208"/>
+        <c:axId val="80380288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84596608"/>
+        <c:axId val="80366208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -4040,19 +4107,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84598144"/>
+        <c:crossAx val="80380288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84598144"/>
+        <c:axId val="80380288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -4085,6 +4154,7 @@
               <c:y val="0.25459163444699856"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -4093,6 +4163,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -4119,7 +4191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84596608"/>
+        <c:crossAx val="80366208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4147,6 +4219,7 @@
           <c:h val="3.5889070146818872E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -4175,6 +4248,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -4204,8 +4278,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4239,6 +4323,7 @@
           <c:y val="6.5252854812398092E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -4246,6 +4331,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -4260,6 +4346,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4290,6 +4377,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -4373,6 +4461,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62A3-435B-9F66-43D207CC3707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4404,6 +4497,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -4487,6 +4581,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62A3-435B-9F66-43D207CC3707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4518,6 +4617,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -4601,6 +4701,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-62A3-435B-9F66-43D207CC3707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4627,6 +4732,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'Q-Chart Data'!$H$25:$H$35</c:f>
@@ -4669,6 +4775,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-62A3-435B-9F66-43D207CC3707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4695,6 +4806,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -4778,18 +4890,34 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-62A3-435B-9F66-43D207CC3707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="86446080"/>
-        <c:axId val="86447616"/>
+        <c:axId val="82057856"/>
+        <c:axId val="82063744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86446080"/>
+        <c:axId val="82057856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -4816,19 +4944,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86447616"/>
+        <c:crossAx val="82063744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86447616"/>
+        <c:axId val="82063744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -4861,6 +4991,7 @@
               <c:y val="0.25375961773130723"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -4869,6 +5000,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -4895,7 +5028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86446080"/>
+        <c:crossAx val="82057856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4923,6 +5056,7 @@
           <c:h val="3.5889070146818872E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -4951,6 +5085,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -4980,8 +5115,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5015,6 +5160,7 @@
           <c:y val="6.5252854812398092E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -5022,6 +5168,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -5036,6 +5183,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5066,6 +5214,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -5149,6 +5298,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1132-467E-8DB4-7981BFB78A65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5180,6 +5334,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -5263,6 +5418,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1132-467E-8DB4-7981BFB78A65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5294,6 +5454,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -5377,6 +5538,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1132-467E-8DB4-7981BFB78A65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5403,6 +5569,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'Q-Chart Data'!$H$41:$H$51</c:f>
@@ -5445,6 +5612,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1132-467E-8DB4-7981BFB78A65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5471,6 +5643,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$9:$A$19</c:f>
@@ -5554,18 +5727,34 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1132-467E-8DB4-7981BFB78A65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="86631552"/>
-        <c:axId val="86633088"/>
+        <c:axId val="82221312"/>
+        <c:axId val="82231296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86631552"/>
+        <c:axId val="82221312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -5592,19 +5781,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86633088"/>
+        <c:crossAx val="82231296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86633088"/>
+        <c:axId val="82231296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -5663,6 +5854,7 @@
               <c:y val="0.24868085616541016"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -5671,6 +5863,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0.00000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -5697,7 +5891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86631552"/>
+        <c:crossAx val="82221312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5725,6 +5919,7 @@
           <c:h val="3.5889070146818872E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -5753,6 +5948,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5782,8 +5978,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5817,6 +6023,7 @@
           <c:y val="6.5252854812398092E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -5824,6 +6031,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -5838,6 +6046,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5868,6 +6077,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$57:$A$62</c:f>
@@ -5932,6 +6142,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8B0-4D02-A2C5-B52F9B7E8B6A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5963,6 +6178,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$57:$A$62</c:f>
@@ -6027,6 +6243,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8B0-4D02-A2C5-B52F9B7E8B6A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6058,6 +6279,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$57:$A$62</c:f>
@@ -6122,6 +6344,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A8B0-4D02-A2C5-B52F9B7E8B6A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6148,6 +6375,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$57:$A$62</c:f>
@@ -6212,6 +6440,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A8B0-4D02-A2C5-B52F9B7E8B6A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6238,6 +6471,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$57:$A$62</c:f>
@@ -6302,18 +6536,34 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A8B0-4D02-A2C5-B52F9B7E8B6A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="86698240"/>
-        <c:axId val="86708224"/>
+        <c:axId val="82118528"/>
+        <c:axId val="82120064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86698240"/>
+        <c:axId val="82118528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -6340,19 +6590,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86708224"/>
+        <c:crossAx val="82120064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86708224"/>
+        <c:axId val="82120064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -6385,6 +6637,7 @@
               <c:y val="0.29658193215244577"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -6393,6 +6646,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -6419,7 +6674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86698240"/>
+        <c:crossAx val="82118528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6447,6 +6702,7 @@
           <c:h val="3.5889070146818872E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -6475,6 +6731,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -6504,8 +6761,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6539,6 +6806,7 @@
           <c:y val="6.5252854812398092E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -6546,6 +6814,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -6560,6 +6829,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6590,6 +6860,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$68:$A$70</c:f>
@@ -6628,6 +6899,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95CE-4B47-B086-DD8F9A76B4F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6659,6 +6935,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$68:$A$70</c:f>
@@ -6697,6 +6974,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95CE-4B47-B086-DD8F9A76B4F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6728,6 +7010,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$68:$A$70</c:f>
@@ -6766,6 +7049,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-95CE-4B47-B086-DD8F9A76B4F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6792,6 +7080,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$68:$A$70</c:f>
@@ -6830,18 +7119,34 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-95CE-4B47-B086-DD8F9A76B4F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="86747392"/>
-        <c:axId val="97038336"/>
+        <c:axId val="84187008"/>
+        <c:axId val="84188544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86747392"/>
+        <c:axId val="84187008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -6868,19 +7173,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97038336"/>
+        <c:crossAx val="84188544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97038336"/>
+        <c:axId val="84188544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -6919,6 +7226,7 @@
               <c:y val="0.31796842686670723"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -6927,6 +7235,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -6953,7 +7263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86747392"/>
+        <c:crossAx val="84187008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6981,6 +7291,7 @@
           <c:h val="3.5889070146818872E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -7009,6 +7320,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -7038,8 +7350,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7073,6 +7395,7 @@
           <c:y val="6.5252854812398092E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -7080,6 +7403,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -7094,6 +7418,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7124,6 +7449,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$76:$A$78</c:f>
@@ -7162,6 +7488,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-963D-4483-AB65-26558BC568A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7193,6 +7524,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$76:$A$78</c:f>
@@ -7231,6 +7563,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-963D-4483-AB65-26558BC568A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7262,6 +7599,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$76:$A$78</c:f>
@@ -7300,6 +7638,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-963D-4483-AB65-26558BC568A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7326,6 +7669,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$76:$A$78</c:f>
@@ -7364,18 +7708,34 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-963D-4483-AB65-26558BC568A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="87087744"/>
-        <c:axId val="84476288"/>
+        <c:axId val="82804736"/>
+        <c:axId val="82806272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87087744"/>
+        <c:axId val="82804736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -7402,20 +7762,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84476288"/>
+        <c:crossAx val="82806272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84476288"/>
+        <c:axId val="82806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -7454,6 +7816,7 @@
               <c:y val="0.2213128497600117"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -7462,6 +7825,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -7488,7 +7853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87087744"/>
+        <c:crossAx val="82804736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7516,6 +7881,7 @@
           <c:h val="4.2414355628058717E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -7544,6 +7910,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -7573,8 +7940,18 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7608,6 +7985,7 @@
           <c:y val="6.5252854812398092E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -7615,6 +7993,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -7629,6 +8008,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7659,6 +8039,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$84:$A$86</c:f>
@@ -7697,6 +8078,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF4D-4A8A-AB1D-FC64CDFECCE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7728,6 +8114,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$84:$A$86</c:f>
@@ -7766,6 +8153,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF4D-4A8A-AB1D-FC64CDFECCE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7797,6 +8189,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$84:$A$86</c:f>
@@ -7835,6 +8228,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF4D-4A8A-AB1D-FC64CDFECCE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7861,6 +8259,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Q-Chart Data'!$A$84:$A$86</c:f>
@@ -7899,18 +8298,34 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BF4D-4A8A-AB1D-FC64CDFECCE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="84536704"/>
-        <c:axId val="97387648"/>
+        <c:axId val="80164736"/>
+        <c:axId val="80166272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84536704"/>
+        <c:axId val="80164736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -7937,19 +8352,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97387648"/>
+        <c:crossAx val="80166272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97387648"/>
+        <c:axId val="80166272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -7988,6 +8405,7 @@
               <c:y val="0.29006195595860507"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -7996,6 +8414,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -8022,7 +8442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84536704"/>
+        <c:crossAx val="80164736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8050,6 +8470,7 @@
           <c:h val="3.5889070146818872E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -8078,6 +8499,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -8107,7 +8529,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Chart5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8120,7 +8542,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Chart6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8133,7 +8555,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Chart7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8146,7 +8568,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Chart8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8159,7 +8581,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Chart9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8172,7 +8594,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Chart10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8185,7 +8607,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Chart11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8204,7 +8626,13 @@
     <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -8257,14 +8685,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -8274,7 +8702,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -8302,8 +8730,8 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:t>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6
-Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</a:t>
+            <a:t>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6
+Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -8326,7 +8754,13 @@
     <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -8379,14 +8813,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -8396,7 +8830,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -8424,8 +8858,8 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:t>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6
-Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</a:t>
+            <a:t>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6
+Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -8440,12 +8874,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.26825</cdr:x>
-      <cdr:y>0.8085</cdr:y>
+      <cdr:x>0.29156</cdr:x>
+      <cdr:y>0.82971</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28325</cdr:x>
-      <cdr:y>0.83975</cdr:y>
+      <cdr:x>0.30656</cdr:x>
+      <cdr:y>0.86096</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8456,7 +8890,7 @@
       </cdr:nvSpPr>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2302128" y="4720690"/>
+          <a:off x="2502153" y="4844515"/>
           <a:ext cx="128731" cy="182463"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -8469,14 +8903,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -8486,7 +8920,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -8548,14 +8982,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -8565,7 +8999,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -8606,7 +9040,13 @@
     <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -8659,14 +9099,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -8676,7 +9116,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -8704,8 +9144,8 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:t>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6
-Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</a:t>
+            <a:t>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6
+Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -8754,14 +9194,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -8771,7 +9211,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -8799,8 +9239,8 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:t>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6
-Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</a:t>
+            <a:t>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6
+Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -8824,7 +9264,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CAA816-118A-4F69-A9DE-20B9633B171C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr bwMode="auto">
@@ -8850,7 +9296,7 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -9020,7 +9466,13 @@
     <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -9073,14 +9525,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -9090,7 +9542,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -9118,8 +9570,8 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:t>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6
-Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</a:t>
+            <a:t>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6
+Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -9143,7 +9595,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1489811A-92E2-4C13-AAC5-5DFD153D4E40}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr bwMode="auto">
@@ -9169,7 +9627,7 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -9403,7 +9861,13 @@
     <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -9456,14 +9920,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -9473,7 +9937,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -9501,8 +9965,8 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:t>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6
-Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</a:t>
+            <a:t>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6
+Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -9526,7 +9990,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01863BB7-A4D5-4A33-9107-A1B32E7A54F5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr bwMode="auto">
@@ -9552,7 +10022,7 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -9786,7 +10256,13 @@
     <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -9839,14 +10315,14 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -9856,7 +10332,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -9884,8 +10360,8 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:t>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6
-Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</a:t>
+            <a:t>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6
+Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -9909,7 +10385,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5D8067-D6BC-4588-956C-09684D74447F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr bwMode="auto">
@@ -9935,7 +10417,7 @@
         <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -10169,7 +10651,13 @@
     <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -10499,7 +10987,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -10541,7 +11029,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -10560,7 +11048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10578,37 +11066,37 @@
     </row>
     <row r="5" spans="1:1" customFormat="false" ht="15.75">
       <c r="A5" s="287" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:1" customFormat="false" ht="15.75">
       <c r="A6" s="287" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:1" customFormat="false" ht="15.75">
       <c r="A7" s="287" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" customFormat="false" ht="15.75">
       <c r="A8" s="117" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:1" customFormat="false" ht="15">
       <c r="A11" s="293" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:1" customFormat="false" ht="15">
       <c r="A12" s="293" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:1" customFormat="false" ht="15">
       <c r="A13" s="293" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:1" customFormat="false" ht="15">
@@ -10616,17 +11104,17 @@
     </row>
     <row r="15" spans="1:1" customFormat="false" ht="15">
       <c r="A15" s="297" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:1" customFormat="false" ht="15">
       <c r="A16" s="297" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:1" customFormat="false" ht="15">
       <c r="A17" s="297" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:1" customFormat="false" ht="15">
@@ -10634,12 +11122,12 @@
     </row>
     <row r="19" spans="1:1" customFormat="false" ht="15">
       <c r="A19" s="297" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:1" customFormat="false" ht="15">
       <c r="A20" s="297" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:1" customFormat="false" ht="15">
@@ -10650,55 +11138,55 @@
     </row>
     <row r="24" spans="1:2" customFormat="false" ht="15">
       <c r="A24" s="298" t="s">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="B24" s="285"/>
     </row>
     <row r="25" spans="1:2" customFormat="false" ht="15">
       <c r="A25" s="298" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B25" s="285"/>
     </row>
     <row r="26" spans="1:2" customFormat="false" ht="15">
       <c r="A26" s="298" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B26" s="285"/>
     </row>
     <row r="27" spans="1:2" customFormat="false" ht="15">
       <c r="A27" s="298" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B27" s="285"/>
     </row>
     <row r="28" spans="1:2" customFormat="false" ht="15">
       <c r="A28" s="298" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B28" s="285"/>
     </row>
     <row r="29" spans="1:2" customFormat="false" ht="15">
       <c r="A29" s="298" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B29" s="285"/>
     </row>
     <row r="30" spans="1:2" customFormat="false" ht="15">
       <c r="A30" s="298" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B30" s="285"/>
     </row>
     <row r="31" spans="1:2" customFormat="false" ht="15">
       <c r="A31" s="298" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="B31" s="285"/>
     </row>
     <row r="32" spans="1:2" customFormat="false" ht="15">
       <c r="A32" s="298" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B32" s="285"/>
     </row>
@@ -10708,35 +11196,35 @@
     </row>
     <row r="34" spans="1:2" customFormat="false" ht="15">
       <c r="A34" s="298" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B34" s="285"/>
     </row>
     <row r="35" spans="1:2" customFormat="false" ht="15">
       <c r="A35" s="298" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B35" s="285"/>
     </row>
     <row r="36" spans="1:2" customFormat="false" ht="15">
       <c r="A36" s="298" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B36" s="285"/>
     </row>
     <row r="37" spans="1:1" customFormat="false" ht="15">
       <c r="A37" s="298" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:1" customFormat="false" ht="15">
       <c r="A38" s="298" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:1" customFormat="false" ht="15">
       <c r="A39" s="298" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:2" customFormat="false" ht="15">
@@ -10754,7 +11242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:I97"/>
   <sheetViews>
@@ -10784,7 +11272,7 @@
     </row>
     <row r="2" spans="1:9" customFormat="false" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -10874,7 +11362,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75">
@@ -10882,7 +11370,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -10893,7 +11381,7 @@
     </row>
     <row r="20" spans="1:2" customFormat="false">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5">
         <v>77.94</v>
@@ -10901,7 +11389,7 @@
     </row>
     <row r="21" spans="1:2" customFormat="false">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5">
         <v>77.94</v>
@@ -10909,7 +11397,7 @@
     </row>
     <row r="22" spans="1:2" customFormat="false">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5">
         <v>31.25</v>
@@ -10917,7 +11405,7 @@
     </row>
     <row r="23" spans="1:2" customFormat="false">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
@@ -10925,7 +11413,7 @@
     </row>
     <row r="24" spans="1:2" customFormat="false">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5">
         <v>31.26</v>
@@ -10933,7 +11421,7 @@
     </row>
     <row r="25" spans="1:2" customFormat="false">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5">
         <v>29.88</v>
@@ -10941,7 +11429,7 @@
     </row>
     <row r="26" spans="1:2" customFormat="false">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5">
         <v>31.26</v>
@@ -10949,7 +11437,7 @@
     </row>
     <row r="27" spans="1:2" customFormat="false">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="5">
         <v>29.88</v>
@@ -10957,7 +11445,7 @@
     </row>
     <row r="28" spans="1:2" customFormat="false">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="5">
         <v>41.36</v>
@@ -10965,7 +11453,7 @@
     </row>
     <row r="29" spans="1:2" customFormat="false">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5">
         <v>39.409999999999997</v>
@@ -10973,7 +11461,7 @@
     </row>
     <row r="30" spans="1:2" customFormat="false">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="5">
         <v>34.32</v>
@@ -11005,7 +11493,7 @@
     </row>
     <row r="36" spans="1:2" customFormat="false">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="13">
         <v>77.739999999999995</v>
@@ -11013,7 +11501,7 @@
     </row>
     <row r="37" spans="1:2" customFormat="false">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="13">
         <v>96.920064000000011</v>
@@ -11021,7 +11509,7 @@
     </row>
     <row r="38" spans="1:2" customFormat="false">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="13">
         <v>38.413439999999994</v>
@@ -11029,7 +11517,7 @@
     </row>
     <row r="39" spans="1:2" customFormat="false">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="13">
         <v>0</v>
@@ -11037,7 +11525,7 @@
     </row>
     <row r="40" spans="1:2" customFormat="false">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="13">
         <v>39.004415999999999</v>
@@ -11045,7 +11533,7 @@
     </row>
     <row r="41" spans="1:2" customFormat="false">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="13">
         <v>37.231487999999999</v>
@@ -11053,7 +11541,7 @@
     </row>
     <row r="42" spans="1:2" customFormat="false">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="13">
         <v>38.117952000000002</v>
@@ -11061,7 +11549,7 @@
     </row>
     <row r="43" spans="1:2" customFormat="false">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="13">
         <v>37.231487999999999</v>
@@ -11069,7 +11557,7 @@
     </row>
     <row r="44" spans="1:2" customFormat="false">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="13">
         <v>50.528448000000004</v>
@@ -11077,7 +11565,7 @@
     </row>
     <row r="45" spans="1:2" customFormat="false">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="13">
         <v>47.869056</v>
@@ -11085,7 +11573,7 @@
     </row>
     <row r="46" spans="1:2" customFormat="false">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="13">
         <v>41.36831999999999</v>
@@ -11116,7 +11604,7 @@
     </row>
     <row r="52" spans="1:2" customFormat="false">
       <c r="A52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="5">
         <v>2.63E-4</v>
@@ -11124,7 +11612,7 @@
     </row>
     <row r="53" spans="1:2" customFormat="false">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="5">
         <v>3.28E-4</v>
@@ -11132,7 +11620,7 @@
     </row>
     <row r="54" spans="1:2" customFormat="false">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="5">
         <v>1.2999999999999999E-4</v>
@@ -11140,7 +11628,7 @@
     </row>
     <row r="55" spans="1:2" customFormat="false">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -11148,7 +11636,7 @@
     </row>
     <row r="56" spans="1:2" customFormat="false">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="5">
         <v>1.3200000000000001E-4</v>
@@ -11156,7 +11644,7 @@
     </row>
     <row r="57" spans="1:2" customFormat="false">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="5">
         <v>1.26E-4</v>
@@ -11164,7 +11652,7 @@
     </row>
     <row r="58" spans="1:2" customFormat="false">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="5">
         <v>1.2899999999999999E-4</v>
@@ -11172,7 +11660,7 @@
     </row>
     <row r="59" spans="1:2" customFormat="false">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="5">
         <v>1.26E-4</v>
@@ -11180,7 +11668,7 @@
     </row>
     <row r="60" spans="1:2" customFormat="false">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="5">
         <v>1.7100000000000001E-4</v>
@@ -11188,7 +11676,7 @@
     </row>
     <row r="61" spans="1:2" customFormat="false">
       <c r="A61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="5">
         <v>1.6200000000000001E-4</v>
@@ -11196,7 +11684,7 @@
     </row>
     <row r="62" spans="1:2" customFormat="false">
       <c r="A62" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="5">
         <v>1.3999999999999999E-4</v>
@@ -11230,7 +11718,7 @@
     </row>
     <row r="68" spans="1:2" customFormat="false">
       <c r="A68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="5">
         <v>432</v>
@@ -11238,7 +11726,7 @@
     </row>
     <row r="69" spans="1:2" customFormat="false">
       <c r="A69" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="5">
         <v>170.2</v>
@@ -11246,7 +11734,7 @@
     </row>
     <row r="70" spans="1:2" customFormat="false">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="5">
         <v>473.4</v>
@@ -11254,7 +11742,7 @@
     </row>
     <row r="71" spans="1:2" customFormat="false">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="5">
         <v>281.60000000000002</v>
@@ -11262,7 +11750,7 @@
     </row>
     <row r="72" spans="1:2" customFormat="false">
       <c r="A72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="5">
         <v>268.3</v>
@@ -11270,7 +11758,7 @@
     </row>
     <row r="73" spans="1:2" customFormat="false">
       <c r="A73" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="5">
         <v>458.3</v>
@@ -11305,7 +11793,7 @@
     </row>
     <row r="79" spans="1:2" customFormat="false">
       <c r="A79" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79" s="5">
         <v>20.010000000000002</v>
@@ -11313,7 +11801,7 @@
     </row>
     <row r="80" spans="1:2" customFormat="false">
       <c r="A80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="5">
         <v>18.75</v>
@@ -11321,7 +11809,7 @@
     </row>
     <row r="81" spans="1:2" customFormat="false">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="5">
         <v>15.48</v>
@@ -11355,7 +11843,7 @@
     </row>
     <row r="87" spans="1:4" customFormat="false">
       <c r="A87" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="5">
         <v>21.45</v>
@@ -11365,7 +11853,7 @@
     </row>
     <row r="88" spans="1:4" customFormat="false">
       <c r="A88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88" s="5">
         <v>22.7</v>
@@ -11375,7 +11863,7 @@
     </row>
     <row r="89" spans="1:4" customFormat="false">
       <c r="A89" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B89" s="5">
         <v>20.14</v>
@@ -11411,7 +11899,7 @@
     </row>
     <row r="95" spans="1:4" customFormat="false">
       <c r="A95" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B95" s="5">
         <v>20</v>
@@ -11421,7 +11909,7 @@
     </row>
     <row r="96" spans="1:4" customFormat="false">
       <c r="A96" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" s="5">
         <v>15</v>
@@ -11431,7 +11919,7 @@
     </row>
     <row r="97" spans="1:4" customFormat="false">
       <c r="A97" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="5">
         <v>1.45</v>
@@ -11448,7 +11936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E134"/>
   <sheetViews>
@@ -11468,7 +11956,7 @@
     </row>
     <row r="2" spans="1:5" customFormat="false" ht="15.75">
       <c r="A2" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -11579,7 +12067,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -11592,7 +12080,7 @@
     </row>
     <row r="20" spans="1:3" customFormat="false">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="28">
         <v>77.75</v>
@@ -11601,7 +12089,7 @@
     </row>
     <row r="21" spans="1:3" customFormat="false">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="28">
         <v>77.75</v>
@@ -11610,7 +12098,7 @@
     </row>
     <row r="22" spans="1:3" customFormat="false">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="28">
         <v>31.1</v>
@@ -11619,7 +12107,7 @@
     </row>
     <row r="23" spans="1:3" customFormat="false">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="28">
         <v>0</v>
@@ -11628,7 +12116,7 @@
     </row>
     <row r="24" spans="1:3" customFormat="false">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="28">
         <v>31.1</v>
@@ -11637,7 +12125,7 @@
     </row>
     <row r="25" spans="1:3" customFormat="false">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="28">
         <v>29.59</v>
@@ -11646,7 +12134,7 @@
     </row>
     <row r="26" spans="1:3" customFormat="false">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="28">
         <v>30.46</v>
@@ -11655,7 +12143,7 @@
     </row>
     <row r="27" spans="1:3" customFormat="false">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="28">
         <v>29.59</v>
@@ -11664,7 +12152,7 @@
     </row>
     <row r="28" spans="1:3" customFormat="false">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="28">
         <v>42.04</v>
@@ -11673,7 +12161,7 @@
     </row>
     <row r="29" spans="1:3" customFormat="false">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="28">
         <v>39.869999999999997</v>
@@ -11682,7 +12170,7 @@
     </row>
     <row r="30" spans="1:3" customFormat="false">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="28">
         <v>34.590000000000003</v>
@@ -11724,7 +12212,7 @@
     </row>
     <row r="36" spans="1:3" customFormat="false">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="13">
         <v>77.713344000000006</v>
@@ -11733,7 +12221,7 @@
     </row>
     <row r="37" spans="1:3" customFormat="false">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="13">
         <v>97.215551999999988</v>
@@ -11742,7 +12230,7 @@
     </row>
     <row r="38" spans="1:3" customFormat="false">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="13">
         <v>38.265696000000005</v>
@@ -11751,7 +12239,7 @@
     </row>
     <row r="39" spans="1:3" customFormat="false">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="13">
         <v>0</v>
@@ -11760,7 +12248,7 @@
     </row>
     <row r="40" spans="1:3" customFormat="false">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="13">
         <v>39.004416000000013</v>
@@ -11769,7 +12257,7 @@
     </row>
     <row r="41" spans="1:3" customFormat="false">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="13">
         <v>36.936000000000007</v>
@@ -11778,7 +12266,7 @@
     </row>
     <row r="42" spans="1:3" customFormat="false">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="13">
         <v>38.117952000000002</v>
@@ -11787,7 +12275,7 @@
     </row>
     <row r="43" spans="1:3" customFormat="false">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="13">
         <v>36.936000000000007</v>
@@ -11796,7 +12284,7 @@
     </row>
     <row r="44" spans="1:3" customFormat="false">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="13">
         <v>52.005887999999999</v>
@@ -11805,7 +12293,7 @@
     </row>
     <row r="45" spans="1:3" customFormat="false">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="13">
         <v>49.346495999999995</v>
@@ -11814,7 +12302,7 @@
     </row>
     <row r="46" spans="1:3" customFormat="false">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="13">
         <v>42.550272000000007</v>
@@ -11856,7 +12344,7 @@
     </row>
     <row r="52" spans="1:3" customFormat="false">
       <c r="A52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="28">
         <v>2.63E-4</v>
@@ -11865,7 +12353,7 @@
     </row>
     <row r="53" spans="1:3" customFormat="false">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="28">
         <v>3.2899999999999997E-4</v>
@@ -11874,7 +12362,7 @@
     </row>
     <row r="54" spans="1:3" customFormat="false">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="28">
         <v>1.295E-4</v>
@@ -11883,7 +12371,7 @@
     </row>
     <row r="55" spans="1:3" customFormat="false">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="28">
         <v>0</v>
@@ -11892,7 +12380,7 @@
     </row>
     <row r="56" spans="1:3" customFormat="false">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="28">
         <v>1.3200000000000001E-4</v>
@@ -11901,7 +12389,7 @@
     </row>
     <row r="57" spans="1:3" customFormat="false">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="28">
         <v>1.25E-4</v>
@@ -11910,7 +12398,7 @@
     </row>
     <row r="58" spans="1:3" customFormat="false">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="28">
         <v>1.2899999999999999E-4</v>
@@ -11919,7 +12407,7 @@
     </row>
     <row r="59" spans="1:3" customFormat="false">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="28">
         <v>1.25E-4</v>
@@ -11928,7 +12416,7 @@
     </row>
     <row r="60" spans="1:3" customFormat="false">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="28">
         <v>1.76E-4</v>
@@ -11937,7 +12425,7 @@
     </row>
     <row r="61" spans="1:3" customFormat="false">
       <c r="A61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="28">
         <v>1.6699999999999999E-4</v>
@@ -11946,7 +12434,7 @@
     </row>
     <row r="62" spans="1:3" customFormat="false">
       <c r="A62" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="28">
         <v>1.44E-4</v>
@@ -11988,7 +12476,7 @@
     </row>
     <row r="68" spans="1:3" customFormat="false">
       <c r="A68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="29">
         <v>433.3</v>
@@ -11997,7 +12485,7 @@
     </row>
     <row r="69" spans="1:3" customFormat="false">
       <c r="A69" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="29">
         <v>172.2</v>
@@ -12006,7 +12494,7 @@
     </row>
     <row r="70" spans="1:3" customFormat="false">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="29">
         <v>473.1</v>
@@ -12015,7 +12503,7 @@
     </row>
     <row r="71" spans="1:3" customFormat="false">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="29">
         <v>291.39999999999998</v>
@@ -12024,7 +12512,7 @@
     </row>
     <row r="72" spans="1:3" customFormat="false">
       <c r="A72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="29">
         <v>276.10000000000002</v>
@@ -12033,7 +12521,7 @@
     </row>
     <row r="73" spans="1:3" customFormat="false">
       <c r="A73" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="28">
         <v>431.4</v>
@@ -12075,7 +12563,7 @@
     </row>
     <row r="79" spans="1:3" customFormat="false">
       <c r="A79" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79" s="30">
         <v>20</v>
@@ -12084,7 +12572,7 @@
     </row>
     <row r="80" spans="1:3" customFormat="false">
       <c r="A80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="29">
         <v>18.53</v>
@@ -12093,7 +12581,7 @@
     </row>
     <row r="81" spans="1:3" customFormat="false">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="28">
         <v>15.17</v>
@@ -12135,7 +12623,7 @@
     </row>
     <row r="87" spans="1:3" customFormat="false">
       <c r="A87" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="30">
         <v>20</v>
@@ -12144,7 +12632,7 @@
     </row>
     <row r="88" spans="1:3" customFormat="false">
       <c r="A88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88" s="29">
         <v>20</v>
@@ -12153,7 +12641,7 @@
     </row>
     <row r="89" spans="1:3" customFormat="false">
       <c r="A89" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B89" s="28">
         <v>20</v>
@@ -12195,7 +12683,7 @@
     </row>
     <row r="95" spans="1:3" customFormat="false">
       <c r="A95" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B95" s="30">
         <v>20</v>
@@ -12204,7 +12692,7 @@
     </row>
     <row r="96" spans="1:3" customFormat="false">
       <c r="A96" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" s="29">
         <v>15</v>
@@ -12213,7 +12701,7 @@
     </row>
     <row r="97" spans="1:3" customFormat="false">
       <c r="A97" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="28">
         <v>4.4800000000000004</v>
@@ -12414,7 +12902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E124"/>
   <sheetViews>
@@ -12432,7 +12920,7 @@
     </row>
     <row r="2" spans="1:5" customFormat="false" ht="15.75">
       <c r="A2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -12534,7 +13022,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -12543,7 +13031,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -12556,7 +13044,7 @@
     </row>
     <row r="20" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="362">
         <v>77.754999999999995</v>
@@ -12565,7 +13053,7 @@
     </row>
     <row r="21" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="363">
         <v>77.754999999999995</v>
@@ -12574,7 +13062,7 @@
     </row>
     <row r="22" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="363">
         <v>31.129000000000001</v>
@@ -12583,7 +13071,7 @@
     </row>
     <row r="23" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="363">
         <v>0.155</v>
@@ -12592,7 +13080,7 @@
     </row>
     <row r="24" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="363">
         <v>31.123000000000001</v>
@@ -12601,7 +13089,7 @@
     </row>
     <row r="25" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="363">
         <v>29.565000000000001</v>
@@ -12610,7 +13098,7 @@
     </row>
     <row r="26" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="363">
         <v>30.49</v>
@@ -12619,7 +13107,7 @@
     </row>
     <row r="27" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="363">
         <v>29.565000000000001</v>
@@ -12628,7 +13116,7 @@
     </row>
     <row r="28" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="362">
         <v>42.057000000000002</v>
@@ -12637,7 +13125,7 @@
     </row>
     <row r="29" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="363">
         <v>39.756999999999998</v>
@@ -12646,7 +13134,7 @@
     </row>
     <row r="30" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="363">
         <v>34.372</v>
@@ -12688,7 +13176,7 @@
     </row>
     <row r="36" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="362">
         <v>78.417000000000002</v>
@@ -12697,7 +13185,7 @@
     </row>
     <row r="37" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="363">
         <v>98.02</v>
@@ -12706,7 +13194,7 @@
     </row>
     <row r="38" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="363">
         <v>38.555999999999997</v>
@@ -12715,7 +13203,7 @@
     </row>
     <row r="39" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="363">
         <v>0.14199999999999999</v>
@@ -12724,7 +13212,7 @@
     </row>
     <row r="40" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="363">
         <v>38.764000000000003</v>
@@ -12733,7 +13221,7 @@
     </row>
     <row r="41" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="363">
         <v>36.82</v>
@@ -12742,7 +13230,7 @@
     </row>
     <row r="42" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="363">
         <v>37.962000000000003</v>
@@ -12751,7 +13239,7 @@
     </row>
     <row r="43" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="363">
         <v>36.82</v>
@@ -12760,7 +13248,7 @@
     </row>
     <row r="44" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="362">
         <v>52.371000000000002</v>
@@ -12769,7 +13257,7 @@
     </row>
     <row r="45" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="363">
         <v>49.466000000000001</v>
@@ -12778,7 +13266,7 @@
     </row>
     <row r="46" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="363">
         <v>43.219000000000001</v>
@@ -12814,13 +13302,13 @@
     <row r="51" spans="1:3" customFormat="false" ht="18.75" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="366" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="362">
         <v>2.654E-4</v>
@@ -12830,7 +13318,7 @@
     </row>
     <row r="53" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="363">
         <v>3.3169999999999999E-4</v>
@@ -12840,7 +13328,7 @@
     </row>
     <row r="54" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="363">
         <v>1.305E-4</v>
@@ -12850,7 +13338,7 @@
     </row>
     <row r="55" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="363">
         <v>0</v>
@@ -12860,7 +13348,7 @@
     </row>
     <row r="56" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="363">
         <v>1.3119999999999999E-4</v>
@@ -12870,7 +13358,7 @@
     </row>
     <row r="57" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="363">
         <v>1.2459999999999999E-4</v>
@@ -12880,7 +13368,7 @@
     </row>
     <row r="58" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="363">
         <v>1.2850000000000001E-4</v>
@@ -12890,7 +13378,7 @@
     </row>
     <row r="59" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="363">
         <v>1.2459999999999999E-4</v>
@@ -12900,7 +13388,7 @@
     </row>
     <row r="60" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="362">
         <v>1.772E-4</v>
@@ -12910,7 +13398,7 @@
     </row>
     <row r="61" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="363">
         <v>1.674E-4</v>
@@ -12920,7 +13408,7 @@
     </row>
     <row r="62" spans="1:4" customFormat="false" ht="13.5" thickBot="1">
       <c r="A62" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="363">
         <v>1.462E-4</v>
@@ -12963,7 +13451,7 @@
     </row>
     <row r="68" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="362">
         <v>432.08</v>
@@ -12972,7 +13460,7 @@
     </row>
     <row r="69" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A69" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="363">
         <v>172.38499999999999</v>
@@ -12981,7 +13469,7 @@
     </row>
     <row r="70" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="363">
         <v>473.13</v>
@@ -12990,7 +13478,7 @@
     </row>
     <row r="71" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="362">
         <v>298.91800000000001</v>
@@ -12999,7 +13487,7 @@
     </row>
     <row r="72" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="363">
         <v>281.15699999999998</v>
@@ -13008,7 +13496,7 @@
     </row>
     <row r="73" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A73" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="363">
         <v>478.40800000000002</v>
@@ -13050,7 +13538,7 @@
     </row>
     <row r="79" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A79" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79" s="367">
         <v>19.98</v>
@@ -13059,7 +13547,7 @@
     </row>
     <row r="80" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="368">
         <v>18.53</v>
@@ -13068,7 +13556,7 @@
     </row>
     <row r="81" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="368">
         <v>15.64</v>
@@ -13110,7 +13598,7 @@
     </row>
     <row r="87" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A87" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="367">
         <v>20.059999999999999</v>
@@ -13119,7 +13607,7 @@
     </row>
     <row r="88" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88" s="368">
         <v>20.11</v>
@@ -13128,7 +13616,7 @@
     </row>
     <row r="89" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A89" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B89" s="368">
         <v>20.059999999999999</v>
@@ -13170,7 +13658,7 @@
     </row>
     <row r="95" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A95" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B95" s="367">
         <v>19.89</v>
@@ -13179,7 +13667,7 @@
     </row>
     <row r="96" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A96" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" s="368">
         <v>14.94</v>
@@ -13188,7 +13676,7 @@
     </row>
     <row r="97" spans="1:3" customFormat="false" ht="13.5" thickBot="1">
       <c r="A97" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="368">
         <v>3.22</v>
@@ -13338,7 +13826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -13355,12 +13843,12 @@
   <sheetData>
     <row r="1" spans="1:1" customFormat="false" ht="15.75">
       <c r="A1" s="294" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:1" customFormat="false">
       <c r="A2" s="295" t="s">
-        <v>188</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="5:5" customFormat="false">
@@ -13368,37 +13856,37 @@
     </row>
     <row r="4" spans="1:1" customFormat="false">
       <c r="A4" s="302" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" customFormat="false" ht="15.75">
       <c r="A6" s="289" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:1" customFormat="false">
       <c r="A7" s="295" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:1" customFormat="false">
       <c r="A8" s="357" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:1" customFormat="false">
       <c r="A9" s="357" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:1" customFormat="false">
       <c r="A10" s="357" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:1" customFormat="false">
       <c r="A11" s="358" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:1" customFormat="false">
@@ -13406,12 +13894,12 @@
     </row>
     <row r="17" spans="1:1" customFormat="false" ht="15.75">
       <c r="A17" s="303" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1" customFormat="false" ht="15.75" thickBot="1">
       <c r="A18" s="299" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8" customFormat="false" ht="16.5" thickBot="1">
@@ -13419,311 +13907,311 @@
         <v>23</v>
       </c>
       <c r="B19" s="300" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="304" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="304" t="s">
-        <v>27</v>
       </c>
       <c r="D19" s="305" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="304" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="305" t="s">
+      <c r="G19" s="304" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="304" t="s">
+      <c r="H19" s="306" t="s">
         <v>30</v>
-      </c>
-      <c r="H19" s="306" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" customFormat="false">
       <c r="A20" s="307" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>129</v>
-      </c>
       <c r="E20" s="308" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="309" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="308" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="310" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" customFormat="false">
       <c r="A21" s="307" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>132</v>
-      </c>
       <c r="E21" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" customFormat="false">
       <c r="A22" s="307" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>135</v>
-      </c>
       <c r="E22" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" customFormat="false">
       <c r="A23" s="307" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>138</v>
-      </c>
       <c r="E23" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" s="313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" customFormat="false">
       <c r="A24" s="307" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>141</v>
-      </c>
       <c r="E24" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24" s="313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:8" customFormat="false">
       <c r="A25" s="307" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="E25" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>145</v>
-      </c>
       <c r="F25" s="312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8" customFormat="false">
       <c r="A26" s="307" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="E26" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>149</v>
-      </c>
       <c r="F26" s="312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26" s="313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8" customFormat="false">
       <c r="A27" s="307" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="E27" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>153</v>
-      </c>
       <c r="F27" s="312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27" s="313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:8" customFormat="false">
       <c r="A28" s="307" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B28" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="E28" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="F28" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="96" t="s">
+      <c r="G28" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="H28" s="82" t="s">
         <v>158</v>
-      </c>
-      <c r="G28" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="82" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:8" customFormat="false">
       <c r="A29" s="307" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="E29" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="F29" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="G29" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="79" t="s">
+      <c r="H29" s="82" t="s">
         <v>165</v>
-      </c>
-      <c r="G29" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" s="82" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:8" customFormat="false" ht="15.75" thickBot="1">
       <c r="A30" s="314" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="E30" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="F30" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="G30" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="H30" s="84" t="s">
         <v>172</v>
-      </c>
-      <c r="G30" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30" s="84" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:8" customFormat="false">
@@ -13743,7 +14231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:K169"/>
   <sheetViews>
@@ -13758,22 +14246,22 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="false" ht="18">
       <c r="A1" s="356" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F1" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="107"/>
       <c r="H1" s="107"/>
       <c r="I1" s="107"/>
       <c r="J1" s="107"/>
       <c r="K1" s="108" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="false" ht="15">
       <c r="A2" s="295" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
         <v>EnergyPlus 22.1</v>
@@ -13783,13 +14271,13 @@
       <c r="I2" s="378"/>
       <c r="J2" s="379"/>
       <c r="K2" s="108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" customFormat="false" ht="15">
       <c r="A3" s="349"/>
       <c r="F3" s="106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="349"/>
       <c r="H3" s="349"/>
@@ -13798,7 +14286,7 @@
         <v>03/29/22</v>
       </c>
       <c r="K3" s="108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:11" customFormat="false" ht="15">
@@ -13807,7 +14295,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="106" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G4" s="349"/>
       <c r="H4" s="349"/>
@@ -13816,19 +14304,19 @@
         <v>E+</v>
       </c>
       <c r="K4" s="108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" customFormat="false" ht="15.75">
       <c r="A5" s="319" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="349"/>
       <c r="H5" s="349"/>
@@ -13845,7 +14333,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="295"/>
       <c r="H6" s="295"/>
@@ -13855,7 +14343,7 @@
     </row>
     <row r="7" spans="1:11" customFormat="false" ht="15">
       <c r="A7" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
@@ -13877,7 +14365,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="349"/>
       <c r="H8" s="349"/>
@@ -13889,7 +14377,7 @@
     </row>
     <row r="9" spans="1:9" customFormat="false" ht="15">
       <c r="A9" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
@@ -13907,7 +14395,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="106" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -13917,7 +14405,7 @@
         <v>Tested Prg/Org</v>
       </c>
       <c r="K10" s="292" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:9" customFormat="false" ht="15">
@@ -13997,7 +14485,7 @@
         <v>Tested Prg</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -14037,7 +14525,7 @@
     </row>
     <row r="20" spans="1:9" customFormat="false">
       <c r="A20" s="257" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="13">
         <v>77.76</v>
@@ -14052,7 +14540,7 @@
     </row>
     <row r="21" spans="1:9" customFormat="false">
       <c r="A21" s="257" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="13">
         <v>77.76</v>
@@ -14067,7 +14555,7 @@
     </row>
     <row r="22" spans="1:9" customFormat="false">
       <c r="A22" s="257" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="13">
         <v>31.189</v>
@@ -14082,7 +14570,7 @@
     </row>
     <row r="23" spans="1:9" customFormat="false">
       <c r="A23" s="257" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="13">
         <v>0</v>
@@ -14097,7 +14585,7 @@
     </row>
     <row r="24" spans="1:9" customFormat="false">
       <c r="A24" s="257" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="13">
         <v>31.189</v>
@@ -14112,7 +14600,7 @@
     </row>
     <row r="25" spans="1:9" customFormat="false">
       <c r="A25" s="257" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="13">
         <v>31.226</v>
@@ -14127,7 +14615,7 @@
     </row>
     <row r="26" spans="1:9" customFormat="false">
       <c r="A26" s="257" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="13">
         <v>31.19</v>
@@ -14142,7 +14630,7 @@
     </row>
     <row r="27" spans="1:9" customFormat="false">
       <c r="A27" s="257" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="13">
         <v>31.226</v>
@@ -14157,7 +14645,7 @@
     </row>
     <row r="28" spans="1:9" customFormat="false">
       <c r="A28" s="257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B28" s="13">
         <v>43.002</v>
@@ -14172,7 +14660,7 @@
     </row>
     <row r="29" spans="1:9" customFormat="false">
       <c r="A29" s="257" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" s="13">
         <v>40.71</v>
@@ -14187,7 +14675,7 @@
     </row>
     <row r="30" spans="1:9" customFormat="false">
       <c r="A30" s="257" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" s="13">
         <v>35.789</v>
@@ -14265,7 +14753,7 @@
     </row>
     <row r="36" spans="1:9" customFormat="false">
       <c r="A36" s="257" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="13">
         <v>77.76</v>
@@ -14280,7 +14768,7 @@
     </row>
     <row r="37" spans="1:9" customFormat="false">
       <c r="A37" s="257" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="13">
         <v>97.2</v>
@@ -14295,7 +14783,7 @@
     </row>
     <row r="38" spans="1:9" customFormat="false">
       <c r="A38" s="257" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" s="13">
         <v>38.38</v>
@@ -14310,7 +14798,7 @@
     </row>
     <row r="39" spans="1:9" customFormat="false">
       <c r="A39" s="257" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" s="13">
         <v>0</v>
@@ -14325,7 +14813,7 @@
     </row>
     <row r="40" spans="1:9" customFormat="false">
       <c r="A40" s="257" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" s="13">
         <v>39.03</v>
@@ -14340,7 +14828,7 @@
     </row>
     <row r="41" spans="1:9" customFormat="false">
       <c r="A41" s="257" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B41" s="13">
         <v>37.31</v>
@@ -14355,7 +14843,7 @@
     </row>
     <row r="42" spans="1:9" customFormat="false">
       <c r="A42" s="257" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" s="13">
         <v>38.32</v>
@@ -14370,7 +14858,7 @@
     </row>
     <row r="43" spans="1:9" customFormat="false">
       <c r="A43" s="257" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="13">
         <v>37.31</v>
@@ -14385,7 +14873,7 @@
     </row>
     <row r="44" spans="1:9" customFormat="false">
       <c r="A44" s="257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" s="13">
         <v>52.73</v>
@@ -14400,7 +14888,7 @@
     </row>
     <row r="45" spans="1:9" customFormat="false">
       <c r="A45" s="257" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="13">
         <v>49.86</v>
@@ -14415,7 +14903,7 @@
     </row>
     <row r="46" spans="1:9" customFormat="false">
       <c r="A46" s="257" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" s="13">
         <v>43.38</v>
@@ -14481,7 +14969,7 @@
     <row r="51" spans="1:9" customFormat="false" ht="15.75" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -14493,7 +14981,7 @@
     </row>
     <row r="52" spans="1:9" customFormat="false">
       <c r="A52" s="257" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="5">
         <v>0.000263158</v>
@@ -14508,7 +14996,7 @@
     </row>
     <row r="53" spans="1:9" customFormat="false">
       <c r="A53" s="257" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" s="5">
         <v>0.000328947</v>
@@ -14523,7 +15011,7 @@
     </row>
     <row r="54" spans="1:9" customFormat="false">
       <c r="A54" s="257" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="243">
         <v>0.000129887</v>
@@ -14538,7 +15026,7 @@
     </row>
     <row r="55" spans="1:9" customFormat="false">
       <c r="A55" s="257" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="242">
         <v>0</v>
@@ -14553,7 +15041,7 @@
     </row>
     <row r="56" spans="1:9" customFormat="false">
       <c r="A56" s="257" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B56" s="5">
         <v>0.000132087</v>
@@ -14568,7 +15056,7 @@
     </row>
     <row r="57" spans="1:9" customFormat="false">
       <c r="A57" s="257" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" s="5">
         <v>0.000126266</v>
@@ -14583,7 +15071,7 @@
     </row>
     <row r="58" spans="1:9" customFormat="false">
       <c r="A58" s="257" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" s="5">
         <v>0.000129684</v>
@@ -14598,7 +15086,7 @@
     </row>
     <row r="59" spans="1:9" customFormat="false">
       <c r="A59" s="257" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B59" s="5">
         <v>0.000126266</v>
@@ -14613,7 +15101,7 @@
     </row>
     <row r="60" spans="1:9" customFormat="false">
       <c r="A60" s="257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" s="5">
         <v>0.000178451</v>
@@ -14628,7 +15116,7 @@
     </row>
     <row r="61" spans="1:9" customFormat="false">
       <c r="A61" s="257" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B61" s="5">
         <v>0.000168738</v>
@@ -14643,7 +15131,7 @@
     </row>
     <row r="62" spans="1:9" customFormat="false">
       <c r="A62" s="257" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="5">
         <v>0.000146808</v>
@@ -14721,7 +15209,7 @@
     </row>
     <row r="68" spans="1:9" customFormat="false">
       <c r="A68" s="257" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B68" s="244">
         <v>433.333</v>
@@ -14736,7 +15224,7 @@
     </row>
     <row r="69" spans="1:9" customFormat="false">
       <c r="A69" s="257" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" s="244">
         <v>172.222</v>
@@ -14751,7 +15239,7 @@
     </row>
     <row r="70" spans="1:9" customFormat="false">
       <c r="A70" s="257" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B70" s="244">
         <v>475</v>
@@ -14766,7 +15254,7 @@
     </row>
     <row r="71" spans="1:9" customFormat="false">
       <c r="A71" s="257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B71" s="244">
         <v>294.444</v>
@@ -14781,7 +15269,7 @@
     </row>
     <row r="72" spans="1:9" customFormat="false">
       <c r="A72" s="257" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B72" s="244">
         <v>277.778</v>
@@ -14796,7 +15284,7 @@
     </row>
     <row r="73" spans="1:9" customFormat="false">
       <c r="A73" s="257" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B73" s="244">
         <v>483.333</v>
@@ -14874,7 +15362,7 @@
     </row>
     <row r="79" spans="1:9" customFormat="false">
       <c r="A79" s="257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B79" s="13">
         <v>20.0003</v>
@@ -14889,7 +15377,7 @@
     </row>
     <row r="80" spans="1:9" customFormat="false">
       <c r="A80" s="257" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B80" s="13">
         <v>18.5369</v>
@@ -14904,7 +15392,7 @@
     </row>
     <row r="81" spans="1:9" customFormat="false">
       <c r="A81" s="257" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B81" s="13">
         <v>15.3792</v>
@@ -14982,7 +15470,7 @@
     </row>
     <row r="87" spans="1:9" customFormat="false">
       <c r="A87" s="257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B87" s="13">
         <v>20.0014</v>
@@ -14997,7 +15485,7 @@
     </row>
     <row r="88" spans="1:9" customFormat="false">
       <c r="A88" s="257" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B88" s="13">
         <v>20.0014</v>
@@ -15012,7 +15500,7 @@
     </row>
     <row r="89" spans="1:9" customFormat="false">
       <c r="A89" s="257" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B89" s="13">
         <v>20.0014</v>
@@ -15090,7 +15578,7 @@
     </row>
     <row r="95" spans="1:9" customFormat="false">
       <c r="A95" s="257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B95" s="13">
         <v>20</v>
@@ -15105,7 +15593,7 @@
     </row>
     <row r="96" spans="1:9" customFormat="false">
       <c r="A96" s="257" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B96" s="13">
         <v>15</v>
@@ -15120,7 +15608,7 @@
     </row>
     <row r="97" spans="1:9" customFormat="false">
       <c r="A97" s="257" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B97" s="13">
         <v>1.85761</v>
@@ -15937,15 +16425,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15966,7 +16452,7 @@
         <v>306</v>
       </c>
       <c r="B5" s="289" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="false" ht="15.75">
@@ -15975,13 +16461,13 @@
         <v>Informative Annex B16, Section B16.6</v>
       </c>
       <c r="B6" s="291" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2" customFormat="false" ht="15.75">
       <c r="A7" s="336"/>
       <c r="B7" s="291" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" customFormat="false" ht="15.75">
@@ -15990,38 +16476,38 @@
         <v>Example Results</v>
       </c>
       <c r="B8" s="291" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="false" ht="15.75">
       <c r="A9" s="336" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="295" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D9" s="290"/>
     </row>
     <row r="10" spans="1:4" customFormat="false" ht="15.75">
       <c r="A10" s="336" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="B10" s="295" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D10" s="285"/>
     </row>
     <row r="11" spans="1:4" customFormat="false" ht="15.75">
       <c r="A11" s="336"/>
       <c r="B11" s="295" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D11" s="299"/>
     </row>
     <row r="12" spans="1:2" customFormat="false" ht="15.75">
       <c r="A12" s="336"/>
       <c r="B12" s="295" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:2" customFormat="false">
@@ -16030,7 +16516,7 @@
         <v/>
       </c>
       <c r="B13" s="295" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:2" customFormat="false">
@@ -16046,7 +16532,7 @@
         <v/>
       </c>
       <c r="B15" s="108" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2" customFormat="false">
@@ -16055,13 +16541,13 @@
         <v/>
       </c>
       <c r="B16" s="108" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2" customFormat="false">
       <c r="A17" s="359"/>
       <c r="B17" s="108" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:2" customFormat="false">
@@ -16081,7 +16567,7 @@
         <v/>
       </c>
       <c r="B20" s="286" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2" customFormat="false">
@@ -16090,7 +16576,7 @@
         <v/>
       </c>
       <c r="B21" s="338" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:1" customFormat="false">
@@ -16123,30 +16609,30 @@
     <row r="29" spans="1:2" customFormat="false" ht="15.75">
       <c r="A29" s="336"/>
       <c r="B29" s="108" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:2" customFormat="false" ht="15" customHeight="1">
       <c r="A30"/>
       <c r="B30" s="339" t="str">
         <f>IF(B21="Comparison",'Title Page'!$A$5&amp;" "&amp;'Title Page'!$A$8&amp;" "&amp;'Title Page'!$A$9&amp;" "&amp;'Title Page'!$A$10,'Title Page'!$A$5&amp;", "&amp;'Title Page'!$A$6)</f>
-        <v>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6</v>
+        <v>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6</v>
       </c>
     </row>
     <row r="31" spans="2:2" customFormat="false" ht="36.75" customHeight="1">
       <c r="B31" s="108" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="2:2" customFormat="false" ht="24">
       <c r="B32" s="339" t="str">
         <f>IF('Title Page'!$B$21="Example",'Title Page'!$A$8&amp;" "&amp;'Title Page'!$A$9&amp;" "&amp;'Title Page'!$A$10,  YourData!$F$2&amp;" "&amp;'Title Page'!$A$14 &amp;" "&amp; 'Title Page'!$A$15&amp;" "&amp;"Annex B16, Section B16.6 Example Results" )</f>
-        <v>Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</v>
+        <v>Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</v>
       </c>
     </row>
     <row r="33" spans="2:2" customFormat="false">
       <c r="B33" s="108" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="2:2" customFormat="false">
@@ -16157,15 +16643,15 @@
     </row>
     <row r="36" spans="2:2" customFormat="false">
       <c r="B36" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:2" customFormat="false" ht="36">
       <c r="B37" s="321" t="str">
         <f>$B$30&amp;"
 "&amp;$B$32 &amp; IF(B34="","", (", b" &amp; MID($B$34,2,200)))</f>
-        <v xml:space="preserve">ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6
-Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</v>
+        <v xml:space="preserve">ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6
+Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</v>
       </c>
     </row>
   </sheetData>
@@ -16188,15 +16674,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -16210,7 +16694,7 @@
     <row r="1" spans="1:4" customFormat="false" ht="15.75">
       <c r="A1" s="118" t="str">
         <f>'Title Page'!$A$5</f>
-        <v>ASHRAE Standard 140-2014</v>
+        <v>ASHRAE Standard 140-2020</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="119"/>
@@ -16218,7 +16702,7 @@
     </row>
     <row r="2" spans="1:4" customFormat="false" ht="15.75">
       <c r="A2" s="118" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B2" s="118"/>
       <c r="C2" s="119"/>
@@ -16226,7 +16710,7 @@
     </row>
     <row r="3" spans="1:4" customFormat="false" ht="15.75">
       <c r="A3" s="245" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="245"/>
       <c r="C3" s="246"/>
@@ -16234,7 +16718,7 @@
     </row>
     <row r="4" spans="1:4" customFormat="false" ht="15.75">
       <c r="A4" s="245" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="B4" s="245"/>
       <c r="C4" s="246"/>
@@ -16248,7 +16732,7 @@
     </row>
     <row r="6" spans="1:4" customFormat="false">
       <c r="A6" s="248" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="248"/>
       <c r="C6" s="248"/>
@@ -16256,7 +16740,7 @@
     </row>
     <row r="7" spans="1:4" customFormat="false">
       <c r="A7" s="248" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="248"/>
       <c r="C7" s="248"/>
@@ -16269,14 +16753,14 @@
     </row>
     <row r="9" spans="1:3" customFormat="false">
       <c r="A9" s="107" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B9" s="120"/>
       <c r="C9" s="120"/>
     </row>
     <row r="10" spans="1:3" customFormat="false">
       <c r="A10" s="349" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B10" s="120"/>
       <c r="C10" s="120"/>
@@ -16286,12 +16770,12 @@
     </row>
     <row r="12" spans="1:1" customFormat="false">
       <c r="A12" s="107" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:1" customFormat="false">
       <c r="A13" s="349" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:1" customFormat="false">
@@ -16299,12 +16783,12 @@
     </row>
     <row r="15" spans="1:1" customFormat="false">
       <c r="A15" s="120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1" customFormat="false">
       <c r="A16" s="120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1" customFormat="false">
@@ -16312,7 +16796,7 @@
     </row>
     <row r="18" spans="1:1" customFormat="false">
       <c r="A18" s="107" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:4" customFormat="false" ht="15.75">
@@ -16326,7 +16810,7 @@
     </row>
     <row r="20" spans="1:4" customFormat="false" ht="15.75">
       <c r="A20" s="118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="118"/>
       <c r="C20" s="119"/>
@@ -16334,72 +16818,72 @@
     </row>
     <row r="22" spans="1:4" customFormat="false" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="130" t="s">
+      <c r="C22" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="D22" s="132" t="s">
         <v>70</v>
-      </c>
-      <c r="D22" s="132" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" customFormat="false" ht="39" thickTop="1">
       <c r="A23" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="134" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="135" t="s">
-        <v>78</v>
-      </c>
       <c r="D23" s="249" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" customFormat="false" ht="27">
       <c r="A24" s="123" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="122" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" customFormat="false">
       <c r="A25" s="361" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="121" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="122" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" customFormat="false" ht="15.75" thickBot="1">
       <c r="A26" s="126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="127" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="136" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" customFormat="false" ht="15.75" thickTop="1">
@@ -16409,77 +16893,77 @@
     </row>
     <row r="28" spans="1:3" customFormat="false">
       <c r="A28" s="128" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B28" s="120"/>
       <c r="C28" s="120"/>
     </row>
     <row r="29" spans="1:3" customFormat="false">
       <c r="A29" s="128" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="120"/>
       <c r="C29" s="120"/>
     </row>
     <row r="30" spans="1:3" customFormat="false">
       <c r="A30" s="128" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="120"/>
       <c r="C30" s="120"/>
     </row>
     <row r="31" spans="1:3" customFormat="false">
       <c r="A31" s="128" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="120"/>
       <c r="C31" s="120"/>
     </row>
     <row r="32" spans="1:3" customFormat="false">
       <c r="A32" s="128" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="120"/>
       <c r="C32" s="120"/>
     </row>
     <row r="33" spans="1:3" customFormat="false">
       <c r="A33" s="128" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="120"/>
       <c r="C33" s="120"/>
     </row>
     <row r="34" spans="1:3" customFormat="false">
       <c r="A34" s="128" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="120"/>
       <c r="C34" s="120"/>
     </row>
     <row r="35" spans="1:3" customFormat="false">
       <c r="A35" s="128" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="120"/>
       <c r="C35" s="120"/>
     </row>
     <row r="36" spans="1:3" customFormat="false">
       <c r="A36" s="120" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36" s="120"/>
       <c r="C36" s="120"/>
     </row>
     <row r="37" spans="1:3" customFormat="false">
       <c r="A37" s="128" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="120"/>
       <c r="C37" s="120"/>
     </row>
     <row r="38" spans="1:3" customFormat="false">
       <c r="A38" s="128" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="120"/>
       <c r="C38" s="120"/>
@@ -16507,15 +16991,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -16534,45 +17016,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="false" ht="13.5" customHeight="1">
-      <c r="A1" s="388" t="str">
+      <c r="A1" s="380" t="str">
         <f>IF('Title Page'!$B$21="Example",'Title Page'!$B$30,"ASHRAE Standard 140-2010 Section 5.4 - HVAC Equipment Performance Tests HE100-HE230")</f>
-        <v>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6</v>
-      </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
+        <v>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6</v>
+      </c>
+      <c r="B1" s="380"/>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+      <c r="E1" s="380"/>
+      <c r="F1" s="380"/>
     </row>
     <row r="2" spans="1:6" customFormat="false" ht="13.5" customHeight="1">
-      <c r="A2" s="388" t="str">
+      <c r="A2" s="380" t="str">
         <f>'Title Page'!$B$32</f>
-        <v>Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</v>
-      </c>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
+        <v>Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</v>
+      </c>
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="380"/>
     </row>
     <row r="3" spans="1:6" customFormat="false" ht="13.5" customHeight="1">
-      <c r="A3" s="388" t="str">
+      <c r="A3" s="380" t="str">
         <f>'Title Page'!$B$34</f>
         <v/>
       </c>
-      <c r="B3" s="388"/>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
     </row>
     <row r="5" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
-      <c r="B5" s="389" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="389"/>
-      <c r="D5" s="389"/>
-      <c r="E5" s="389"/>
+      <c r="B5" s="381" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="381"/>
+      <c r="D5" s="381"/>
+      <c r="E5" s="381"/>
     </row>
     <row r="6" spans="2:5" customFormat="false" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="296"/>
@@ -16582,114 +17064,114 @@
     </row>
     <row r="7" spans="2:5" customFormat="false" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B7" s="323" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C7" s="324" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D7" s="325" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E7" s="326" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:5" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="B8" s="316" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C8" s="317" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="320" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E8" s="322" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B9" s="318" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C9" s="327" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="328" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E9" s="329" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B10" s="318" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C10" s="327" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D10" s="328" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E10" s="329" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B11" s="318" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C11" s="327" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D11" s="328" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E11" s="329" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B12" s="318" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C12" s="327" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D12" s="328" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E12" s="329" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B13" s="318" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" s="327" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D13" s="328" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E13" s="329" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="2:5" customFormat="false" ht="14.25" customHeight="1" thickBot="1">
       <c r="B14" s="330" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C14" s="331" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D14" s="332" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E14" s="333" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="2:5" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
@@ -16699,12 +17181,12 @@
       <c r="E15" s="296"/>
     </row>
     <row r="20" spans="2:5" customFormat="false" ht="17.25" customHeight="1">
-      <c r="B20" s="389" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="389"/>
-      <c r="D20" s="389"/>
-      <c r="E20" s="389"/>
+      <c r="B20" s="381" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="381"/>
+      <c r="D20" s="381"/>
+      <c r="E20" s="381"/>
     </row>
     <row r="21" spans="1:5" customFormat="false" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" t="str">
@@ -16718,107 +17200,102 @@
     </row>
     <row r="22" spans="2:5" customFormat="false" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B22" s="323" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C22" s="324" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="384" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" s="385"/>
+        <v>201</v>
+      </c>
+      <c r="D22" s="386" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="387"/>
     </row>
     <row r="23" spans="2:5" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="B23" s="316" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C23" s="317" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="386" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="387"/>
+        <v>89</v>
+      </c>
+      <c r="D23" s="388" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="389"/>
     </row>
     <row r="24" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B24" s="318" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C24" s="327" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="380" t="s">
-        <v>224</v>
-      </c>
-      <c r="E24" s="381"/>
+        <v>90</v>
+      </c>
+      <c r="D24" s="382" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="383"/>
     </row>
     <row r="25" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B25" s="318" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C25" s="327" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="380" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" s="381"/>
+        <v>212</v>
+      </c>
+      <c r="D25" s="382" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="383"/>
     </row>
     <row r="26" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B26" s="318" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C26" s="327" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="380" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="381"/>
+        <v>213</v>
+      </c>
+      <c r="D26" s="382" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="383"/>
     </row>
     <row r="27" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B27" s="318" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C27" s="327" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="380" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" s="381"/>
+        <v>214</v>
+      </c>
+      <c r="D27" s="382" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="383"/>
     </row>
     <row r="28" spans="2:5" customFormat="false" ht="13.5" customHeight="1">
       <c r="B28" s="318" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C28" s="327" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="380" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="381"/>
+        <v>215</v>
+      </c>
+      <c r="D28" s="382" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="383"/>
     </row>
     <row r="29" spans="2:5" customFormat="false" ht="14.25" customHeight="1" thickBot="1">
       <c r="B29" s="330" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C29" s="331" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="382" t="s">
-        <v>228</v>
-      </c>
-      <c r="E29" s="383"/>
+        <v>216</v>
+      </c>
+      <c r="D29" s="384" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="385"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D22:E22"/>
@@ -16827,6 +17304,11 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -16838,13 +17320,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L519"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -16862,65 +17342,65 @@
   <sheetData>
     <row r="1" spans="1:12" customFormat="false" ht="12.75" customHeight="1">
       <c r="A1" s="109"/>
-      <c r="B1" s="388" t="str">
+      <c r="B1" s="380" t="str">
         <f>'Title Page'!$B$30</f>
-        <v>ASHRAE Standard 140-2014, Informative Annex B16, Section B16.6</v>
-      </c>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
+        <v>ASHRAE Standard 140-2020, Informative Annex B16, Section B16.6</v>
+      </c>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+      <c r="E1" s="380"/>
+      <c r="F1" s="380"/>
+      <c r="G1" s="380"/>
+      <c r="H1" s="380"/>
+      <c r="I1" s="380"/>
+      <c r="J1" s="380"/>
+      <c r="K1" s="380"/>
+      <c r="L1" s="380"/>
     </row>
     <row r="2" spans="1:12" customFormat="false" ht="12.75" customHeight="1">
       <c r="A2" s="109"/>
-      <c r="B2" s="388" t="str">
+      <c r="B2" s="380" t="str">
         <f>'Title Page'!$B$32</f>
-        <v>Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100-HE230</v>
-      </c>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
+        <v>Example Results for Section 5.4 - HVAC Equipment Performance Tests HE100 through HE230</v>
+      </c>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="380"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
     </row>
     <row r="3" spans="1:12" customFormat="false" ht="12.75" customHeight="1">
       <c r="A3" s="109"/>
-      <c r="B3" s="388" t="str">
+      <c r="B3" s="380" t="str">
         <f>'Title Page'!$B$34</f>
         <v/>
       </c>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="388"/>
-      <c r="I3" s="388"/>
-      <c r="J3" s="388"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="388"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380"/>
+      <c r="I3" s="380"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="380"/>
     </row>
     <row r="4" spans="1:3" customFormat="false" ht="16.5" customHeight="1">
       <c r="A4" s="109"/>
       <c r="C4" s="349" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="false" ht="10.5" customHeight="1">
       <c r="A5" s="109"/>
       <c r="C5" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" customFormat="false" ht="8.25" customHeight="1">
@@ -16929,7 +17409,7 @@
     <row r="7" spans="1:12" customFormat="false" ht="16.5" thickBot="1">
       <c r="A7" s="109"/>
       <c r="B7" s="348" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C7" s="137"/>
       <c r="D7" s="103"/>
@@ -16949,7 +17429,7 @@
       <c r="D8" s="177"/>
       <c r="E8" s="178"/>
       <c r="F8" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="391"/>
       <c r="H8" s="391"/>
@@ -16978,10 +17458,10 @@
       <c r="G9" s="142"/>
       <c r="H9" s="142"/>
       <c r="I9" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J9" s="370" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K9" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -17004,17 +17484,17 @@
         <v>CETC</v>
       </c>
       <c r="F10" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="147" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="147" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="147"/>
       <c r="I10" s="280" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J10" s="371" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K10" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -17166,7 +17646,7 @@
       </c>
       <c r="H14" s="153"/>
       <c r="I14" s="340" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J14" s="154">
         <v>0</v>
@@ -17356,10 +17836,10 @@
       <c r="G19" s="142"/>
       <c r="H19" s="142"/>
       <c r="I19" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J19" s="370" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K19" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -17369,7 +17849,7 @@
     <row r="20" spans="1:11" customFormat="false" ht="15">
       <c r="A20" s="109"/>
       <c r="B20" s="282" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="145" t="str">
         <f>'ESP-HOT'!$B$18</f>
@@ -17384,19 +17864,19 @@
         <v>CETC</v>
       </c>
       <c r="F20" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="H20" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I20" s="280" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J20" s="371" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K20" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -17438,7 +17918,7 @@
         <v>1.6667065209593789E-2</v>
       </c>
       <c r="J21" s="155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21" s="168" t="str">
         <f>A!E38</f>
@@ -17480,7 +17960,7 @@
         <v>1.159303409864162E-2</v>
       </c>
       <c r="J22" s="155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" s="168" t="str">
         <f>A!E39</f>
@@ -17522,7 +18002,7 @@
         <v>7.8426056815322082E-3</v>
       </c>
       <c r="J23" s="158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="169" t="str">
         <f>A!E40</f>
@@ -17532,11 +18012,11 @@
     <row r="24" spans="1:11" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="A24" s="109"/>
       <c r="B24" s="341" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C24" s="151"/>
       <c r="D24" s="342" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E24" s="151"/>
       <c r="F24" s="153"/>
@@ -17562,7 +18042,7 @@
     <row r="26" spans="1:11" customFormat="false" ht="16.5" thickBot="1">
       <c r="A26" s="109"/>
       <c r="B26" s="348" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C26" s="137"/>
       <c r="D26" s="103"/>
@@ -17581,7 +18061,7 @@
       <c r="D27" s="177"/>
       <c r="E27" s="178"/>
       <c r="F27" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G27" s="391"/>
       <c r="H27" s="391"/>
@@ -17610,10 +18090,10 @@
       <c r="G28" s="142"/>
       <c r="H28" s="142"/>
       <c r="I28" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J28" s="370" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K28" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -17636,17 +18116,17 @@
         <v>CETC</v>
       </c>
       <c r="F29" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="147" t="s">
         <v>33</v>
-      </c>
-      <c r="G29" s="147" t="s">
-        <v>34</v>
       </c>
       <c r="H29" s="147"/>
       <c r="I29" s="280" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J29" s="371" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K29" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -17801,7 +18281,7 @@
       </c>
       <c r="H33" s="153"/>
       <c r="I33" s="374" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J33" s="170">
         <f t="shared" si="6"/>
@@ -17993,10 +18473,10 @@
       <c r="G38" s="142"/>
       <c r="H38" s="142"/>
       <c r="I38" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J38" s="370" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K38" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -18019,19 +18499,19 @@
         <v>CETC</v>
       </c>
       <c r="F39" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="H39" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I39" s="280" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J39" s="371" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K39" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -18073,7 +18553,7 @@
         <v>3.5684090314358138E-2</v>
       </c>
       <c r="J40" s="171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K40" s="168" t="str">
         <f>A!I38</f>
@@ -18115,7 +18595,7 @@
         <v>3.2661448796233089E-2</v>
       </c>
       <c r="J41" s="171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K41" s="168" t="str">
         <f>A!I39</f>
@@ -18157,7 +18637,7 @@
         <v>4.3669538746652005E-2</v>
       </c>
       <c r="J42" s="172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K42" s="169" t="str">
         <f>A!I40</f>
@@ -18167,11 +18647,11 @@
     <row r="43" spans="1:11" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="A43" s="109"/>
       <c r="B43" s="341" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C43" s="151"/>
       <c r="D43" s="342" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E43" s="151"/>
       <c r="F43" s="153"/>
@@ -18197,7 +18677,7 @@
     <row r="45" spans="1:11" customFormat="false" ht="19.5" thickBot="1">
       <c r="A45" s="109"/>
       <c r="B45" s="348" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C45" s="137"/>
       <c r="D45" s="103"/>
@@ -18216,7 +18696,7 @@
       <c r="D46" s="177"/>
       <c r="E46" s="178"/>
       <c r="F46" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G46" s="391"/>
       <c r="H46" s="391"/>
@@ -18245,10 +18725,10 @@
       <c r="G47" s="142"/>
       <c r="H47" s="142"/>
       <c r="I47" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J47" s="370" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K47" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -18271,17 +18751,17 @@
         <v>CETC</v>
       </c>
       <c r="F48" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="147" t="s">
         <v>33</v>
-      </c>
-      <c r="G48" s="147" t="s">
-        <v>34</v>
       </c>
       <c r="H48" s="147"/>
       <c r="I48" s="280" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J48" s="371" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K48" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -18433,7 +18913,7 @@
       </c>
       <c r="H52" s="183"/>
       <c r="I52" s="340" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J52" s="347">
         <v>0</v>
@@ -18620,10 +19100,10 @@
       <c r="G57" s="142"/>
       <c r="H57" s="142"/>
       <c r="I57" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J57" s="370" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K57" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -18646,19 +19126,19 @@
         <v>CETC</v>
       </c>
       <c r="F58" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="H58" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I58" s="280" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J58" s="371" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K58" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -18700,7 +19180,7 @@
         <v>3.5482640213658843E-2</v>
       </c>
       <c r="J59" s="218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K59" s="173" t="str">
         <f>A!M38</f>
@@ -18742,7 +19222,7 @@
         <v>3.2634971796937931E-2</v>
       </c>
       <c r="J60" s="218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K60" s="173" t="str">
         <f>A!M39</f>
@@ -18784,7 +19264,7 @@
         <v>4.3235704323570538E-2</v>
       </c>
       <c r="J61" s="220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K61" s="174" t="str">
         <f>A!M40</f>
@@ -18794,11 +19274,11 @@
     <row r="62" spans="1:11" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="A62" s="109"/>
       <c r="B62" s="341" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C62" s="151"/>
       <c r="D62" s="342" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E62" s="151"/>
       <c r="F62" s="183"/>
@@ -18824,7 +19304,7 @@
     <row r="64" spans="1:11" customFormat="false" ht="16.5" thickBot="1">
       <c r="A64" s="109"/>
       <c r="B64" s="348" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C64" s="137"/>
       <c r="D64" s="103"/>
@@ -18843,7 +19323,7 @@
       <c r="D65" s="177"/>
       <c r="E65" s="178"/>
       <c r="F65" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G65" s="391"/>
       <c r="H65" s="391"/>
@@ -18872,10 +19352,10 @@
       <c r="G66" s="142"/>
       <c r="H66" s="142"/>
       <c r="I66" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J66" s="370" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K66" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -18898,17 +19378,17 @@
         <v>CETC</v>
       </c>
       <c r="F67" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="147" t="s">
         <v>33</v>
-      </c>
-      <c r="G67" s="147" t="s">
-        <v>34</v>
       </c>
       <c r="H67" s="147"/>
       <c r="I67" s="280" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J67" s="371" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K67" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -19053,10 +19533,10 @@
       <c r="G71" s="142"/>
       <c r="H71" s="142"/>
       <c r="I71" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J71" s="370" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K71" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -19079,19 +19559,19 @@
         <v>CETC</v>
       </c>
       <c r="F72" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G72" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="H72" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I72" s="280" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J72" s="371" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K72" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -19133,7 +19613,7 @@
         <v>5.9585878488573406E-2</v>
       </c>
       <c r="J73" s="240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K73" s="200" t="str">
         <f>A!E50</f>
@@ -19175,7 +19655,7 @@
         <v>4.6721183394968377E-2</v>
       </c>
       <c r="J74" s="240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K74" s="200" t="str">
         <f>A!E51</f>
@@ -19217,7 +19697,7 @@
         <v>0.10307958143655332</v>
       </c>
       <c r="J75" s="241" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K75" s="204" t="str">
         <f>A!E52</f>
@@ -19227,11 +19707,11 @@
     <row r="76" spans="1:12" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="A76" s="109"/>
       <c r="B76" s="341" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C76" s="151"/>
       <c r="D76" s="342" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F76" s="283"/>
       <c r="G76" s="185"/>
@@ -19258,7 +19738,7 @@
     <row r="78" spans="1:12" customFormat="false" ht="16.5" thickBot="1">
       <c r="A78" s="109"/>
       <c r="B78" s="348" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C78" s="137"/>
       <c r="D78" s="103"/>
@@ -19278,7 +19758,7 @@
       <c r="D79" s="177"/>
       <c r="E79" s="178"/>
       <c r="F79" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G79" s="391"/>
       <c r="H79" s="391"/>
@@ -19308,7 +19788,7 @@
       <c r="G80" s="142"/>
       <c r="H80" s="142"/>
       <c r="I80" s="343" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J80" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -19332,16 +19812,16 @@
         <v>CETC</v>
       </c>
       <c r="F81" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G81" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="H81" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I81" s="344" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J81" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -19472,7 +19952,7 @@
     <row r="85" spans="1:12" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="A85" s="109"/>
       <c r="B85" s="342" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C85" s="185"/>
       <c r="E85" s="185"/>
@@ -19500,7 +19980,7 @@
     <row r="87" spans="1:12" customFormat="false" ht="16.5" thickBot="1">
       <c r="A87" s="109"/>
       <c r="B87" s="348" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C87" s="137"/>
       <c r="D87" s="103"/>
@@ -19520,7 +20000,7 @@
       <c r="D88" s="177"/>
       <c r="E88" s="178"/>
       <c r="F88" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G88" s="391"/>
       <c r="H88" s="391"/>
@@ -19550,7 +20030,7 @@
       <c r="G89" s="142"/>
       <c r="H89" s="142"/>
       <c r="I89" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J89" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -19575,16 +20055,16 @@
         <v>CETC</v>
       </c>
       <c r="F90" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G90" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="H90" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I90" s="280" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J90" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -19719,7 +20199,7 @@
     <row r="94" spans="1:12" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="A94" s="109"/>
       <c r="B94" s="342" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C94" s="185"/>
       <c r="E94" s="185"/>
@@ -19748,7 +20228,7 @@
     <row r="96" spans="1:12" customFormat="false" ht="16.5" thickBot="1">
       <c r="A96" s="109"/>
       <c r="B96" s="348" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C96" s="137"/>
       <c r="D96" s="103"/>
@@ -19768,7 +20248,7 @@
       <c r="D97" s="177"/>
       <c r="E97" s="178"/>
       <c r="F97" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G97" s="391"/>
       <c r="H97" s="391"/>
@@ -19798,7 +20278,7 @@
       <c r="G98" s="142"/>
       <c r="H98" s="142"/>
       <c r="I98" s="279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J98" s="166" t="str">
         <f>YourData!$B$17</f>
@@ -19823,16 +20303,16 @@
         <v>CETC</v>
       </c>
       <c r="F99" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G99" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="H99" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I99" s="280" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J99" s="167" t="str">
         <f>YourData!$B$18</f>
@@ -19967,7 +20447,7 @@
     <row r="103" spans="1:12" customFormat="false" ht="13.5" customHeight="1" thickTop="1">
       <c r="A103" s="109"/>
       <c r="B103" s="342" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C103" s="151"/>
       <c r="E103" s="151"/>
@@ -24738,16 +25218,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F65:I65"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="F88:I88"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F65:I65"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1" right="0.5" top="0.3" bottom="0.5" header="0.5" footer="0.5"/>
@@ -24761,13 +25241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -24779,7 +25257,7 @@
   <sheetData>
     <row r="1" spans="1:1" customFormat="false">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:1" customFormat="false">
@@ -24792,7 +25270,7 @@
     </row>
     <row r="4" spans="1:5" customFormat="false" ht="15">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" s="101"/>
     </row>
@@ -24807,25 +25285,25 @@
         <v>23</v>
       </c>
       <c r="B9" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="99" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="G9" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="H9" s="93" t="s">
         <v>30</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" customFormat="false" ht="15">
@@ -24834,25 +25312,25 @@
         <v>HE100: 100% eff.</v>
       </c>
       <c r="B10" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>129</v>
-      </c>
       <c r="E10" s="97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" customFormat="false" ht="15">
@@ -24861,25 +25339,25 @@
         <v>HE110: 80% eff.</v>
       </c>
       <c r="B11" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>132</v>
-      </c>
       <c r="E11" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" customFormat="false" ht="15">
@@ -24888,25 +25366,25 @@
         <v>HE120: 80% eff., PLR=0.4</v>
       </c>
       <c r="B12" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>135</v>
-      </c>
       <c r="E12" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" customFormat="false" ht="15">
@@ -24915,25 +25393,25 @@
         <v>HE130: No Load</v>
       </c>
       <c r="B13" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>138</v>
-      </c>
       <c r="E13" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" customFormat="false" ht="15">
@@ -24942,25 +25420,25 @@
         <v>HE140: Periodic PLR</v>
       </c>
       <c r="B14" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="79" t="s">
-        <v>141</v>
-      </c>
       <c r="E14" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" customFormat="false" ht="15">
@@ -24969,25 +25447,25 @@
         <v>HE150: Continuous Circ. Fan</v>
       </c>
       <c r="B15" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="E15" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="96" t="s">
-        <v>145</v>
-      </c>
       <c r="F15" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" customFormat="false" ht="15">
@@ -24996,25 +25474,25 @@
         <v>HE160: Cycling Circ. Fan</v>
       </c>
       <c r="B16" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="E16" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>149</v>
-      </c>
       <c r="F16" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" customFormat="false" ht="15">
@@ -25023,25 +25501,25 @@
         <v>HE170: Draft Fan</v>
       </c>
       <c r="B17" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="E17" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>153</v>
-      </c>
       <c r="F17" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" customFormat="false" ht="15">
@@ -25050,25 +25528,25 @@
         <v>HE210: Realistic Weather</v>
       </c>
       <c r="B18" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="E18" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="F18" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="G18" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="H18" s="82" t="s">
         <v>158</v>
-      </c>
-      <c r="G18" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="82" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" customFormat="false" ht="15">
@@ -25077,25 +25555,25 @@
         <v>HE220: Setback Thermostat</v>
       </c>
       <c r="B19" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="E19" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="F19" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="G19" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="H19" s="82" t="s">
         <v>165</v>
-      </c>
-      <c r="G19" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:8" customFormat="false" ht="15.75" thickBot="1">
@@ -25104,25 +25582,25 @@
         <v>HE230: Undersized Furnace</v>
       </c>
       <c r="B20" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="E20" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="F20" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="G20" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="83" t="s">
+      <c r="H20" s="84" t="s">
         <v>172</v>
-      </c>
-      <c r="G20" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="84" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:8" customFormat="false">
@@ -26427,7 +26905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="D1:J406"/>
   <sheetViews>
@@ -26445,17 +26923,17 @@
   <sheetData>
     <row r="1" spans="4:4" customFormat="false">
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" customFormat="false">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" customFormat="false" ht="13.5" thickBot="1">
       <c r="A5" s="103" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="137"/>
       <c r="C5" s="103" t="s">
@@ -26475,12 +26953,12 @@
       <c r="C6" s="177"/>
       <c r="D6" s="178"/>
       <c r="E6" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" s="391"/>
       <c r="G6" s="392"/>
       <c r="H6" s="179" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I6" s="165"/>
       <c r="J6" s="376"/>
@@ -26516,13 +26994,13 @@
       <c r="C8" s="146"/>
       <c r="D8" s="111"/>
       <c r="E8" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="148"/>
       <c r="I8" s="167"/>
@@ -26853,7 +27331,7 @@
         <v>41.819000000000003</v>
       </c>
       <c r="H17" s="155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="168" t="str">
         <f>A!E38</f>
@@ -26890,7 +27368,7 @@
         <v>39.679000000000002</v>
       </c>
       <c r="H18" s="155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="168" t="str">
         <f>A!E39</f>
@@ -26927,7 +27405,7 @@
         <v>34.42733333333333</v>
       </c>
       <c r="H19" s="158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="169" t="str">
         <f>A!E40</f>
@@ -26947,7 +27425,7 @@
     </row>
     <row r="21" spans="1:9" customFormat="false" ht="13.5" thickBot="1">
       <c r="A21" s="103" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="137"/>
       <c r="C21" s="103" t="s">
@@ -26966,12 +27444,12 @@
       <c r="C22" s="177"/>
       <c r="D22" s="178"/>
       <c r="E22" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="391"/>
       <c r="G22" s="392"/>
       <c r="H22" s="179" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I22" s="165"/>
     </row>
@@ -27006,13 +27484,13 @@
       <c r="C24" s="146"/>
       <c r="D24" s="111"/>
       <c r="E24" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="G24" s="189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H24" s="164"/>
       <c r="I24" s="167"/>
@@ -27351,7 +27829,7 @@
         <v>51.635111999999999</v>
       </c>
       <c r="H33" s="171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" s="168" t="str">
         <f>A!I38</f>
@@ -27388,7 +27866,7 @@
         <v>48.893850666666673</v>
       </c>
       <c r="H34" s="171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" s="168" t="str">
         <f>A!I39</f>
@@ -27425,7 +27903,7 @@
         <v>42.37919733333333</v>
       </c>
       <c r="H35" s="172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I35" s="169" t="str">
         <f>A!I40</f>
@@ -27445,11 +27923,11 @@
     </row>
     <row r="37" spans="1:9" customFormat="false" ht="13.5" thickBot="1">
       <c r="A37" s="103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37" s="137"/>
       <c r="C37" s="103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="138"/>
       <c r="E37" s="138"/>
@@ -27464,12 +27942,12 @@
       <c r="C38" s="177"/>
       <c r="D38" s="178"/>
       <c r="E38" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F38" s="391"/>
       <c r="G38" s="392"/>
       <c r="H38" s="179" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I38" s="165"/>
     </row>
@@ -27504,13 +27982,13 @@
       <c r="C40" s="146"/>
       <c r="D40" s="111"/>
       <c r="E40" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="G40" s="189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H40" s="164"/>
       <c r="I40" s="167"/>
@@ -27841,7 +28319,7 @@
         <v>1.7473333333333332E-4</v>
       </c>
       <c r="H49" s="218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I49" s="173" t="str">
         <f>A!M38</f>
@@ -27878,7 +28356,7 @@
         <v>1.6546666666666663E-4</v>
       </c>
       <c r="H50" s="218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I50" s="173" t="str">
         <f>A!M39</f>
@@ -27915,7 +28393,7 @@
         <v>1.4339999999999999E-4</v>
       </c>
       <c r="H51" s="220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I51" s="174" t="str">
         <f>A!M40</f>
@@ -27936,11 +28414,11 @@
     </row>
     <row r="53" spans="1:10" customFormat="false" ht="13.5" thickBot="1">
       <c r="A53" s="103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B53" s="137"/>
       <c r="C53" s="103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="138"/>
       <c r="E53" s="138"/>
@@ -27956,12 +28434,12 @@
       <c r="C54" s="177"/>
       <c r="D54" s="178"/>
       <c r="E54" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F54" s="391"/>
       <c r="G54" s="392"/>
       <c r="H54" s="179" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I54" s="165"/>
       <c r="J54" s="161"/>
@@ -27998,13 +28476,13 @@
       <c r="C56" s="146"/>
       <c r="D56" s="111"/>
       <c r="E56" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="G56" s="189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H56" s="164"/>
       <c r="I56" s="167"/>
@@ -28012,7 +28490,7 @@
     </row>
     <row r="57" spans="1:10" customFormat="false" ht="36">
       <c r="A57" s="353" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B57" s="205">
         <f>A!B47</f>
@@ -28049,7 +28527,7 @@
     </row>
     <row r="58" spans="1:10" customFormat="false" ht="36">
       <c r="A58" s="353" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B58" s="205">
         <f>A!B48</f>
@@ -28086,7 +28564,7 @@
     </row>
     <row r="59" spans="1:10" customFormat="false" ht="24">
       <c r="A59" s="354" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B59" s="269">
         <f>A!B49</f>
@@ -28123,7 +28601,7 @@
     </row>
     <row r="60" spans="1:10" customFormat="false" ht="36">
       <c r="A60" s="353" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B60" s="205">
         <f>A!B50</f>
@@ -28150,7 +28628,7 @@
         <v>290.63933333333335</v>
       </c>
       <c r="H60" s="210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I60" s="209" t="str">
         <f>A!E50</f>
@@ -28160,7 +28638,7 @@
     </row>
     <row r="61" spans="1:10" customFormat="false" ht="36">
       <c r="A61" s="353" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B61" s="205">
         <f>A!B51</f>
@@ -28187,7 +28665,7 @@
         <v>275.18566666666669</v>
       </c>
       <c r="H61" s="210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I61" s="209" t="str">
         <f>A!E51</f>
@@ -28197,7 +28675,7 @@
     </row>
     <row r="62" spans="1:10" customFormat="false" ht="36.75" thickBot="1">
       <c r="A62" s="355" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B62" s="211">
         <f>A!B52</f>
@@ -28224,7 +28702,7 @@
         <v>456.03600000000006</v>
       </c>
       <c r="H62" s="214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I62" s="215" t="str">
         <f>A!E52</f>
@@ -28246,7 +28724,7 @@
     </row>
     <row r="64" spans="1:10" customFormat="false" ht="13.5" thickBot="1">
       <c r="A64" s="103" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B64" s="137"/>
       <c r="C64" s="103" t="s">
@@ -28266,7 +28744,7 @@
       <c r="C65" s="177"/>
       <c r="D65" s="178"/>
       <c r="E65" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F65" s="391"/>
       <c r="G65" s="392"/>
@@ -28306,13 +28784,13 @@
       <c r="C67" s="146"/>
       <c r="D67" s="111"/>
       <c r="E67" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="G67" s="189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H67" s="167"/>
       <c r="I67" s="107"/>
@@ -28320,7 +28798,7 @@
     </row>
     <row r="68" spans="1:10" customFormat="false">
       <c r="A68" s="180" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B68" s="221">
         <f>A!B60</f>
@@ -28355,7 +28833,7 @@
     </row>
     <row r="69" spans="1:10" customFormat="false">
       <c r="A69" s="180" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B69" s="197">
         <f>A!B61</f>
@@ -28390,7 +28868,7 @@
     </row>
     <row r="70" spans="1:10" customFormat="false" ht="13.5" thickBot="1">
       <c r="A70" s="191" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B70" s="201">
         <f>A!B62</f>
@@ -28437,7 +28915,7 @@
     </row>
     <row r="72" spans="1:10" customFormat="false" ht="13.5" thickBot="1">
       <c r="A72" s="103" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B72" s="137"/>
       <c r="C72" s="103" t="s">
@@ -28457,7 +28935,7 @@
       <c r="C73" s="177"/>
       <c r="D73" s="178"/>
       <c r="E73" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F73" s="391"/>
       <c r="G73" s="392"/>
@@ -28497,13 +28975,13 @@
       <c r="C75" s="146"/>
       <c r="D75" s="111"/>
       <c r="E75" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="F75" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="G75" s="189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H75" s="167"/>
       <c r="I75" s="151"/>
@@ -28634,7 +29112,7 @@
     </row>
     <row r="80" spans="1:10" customFormat="false" ht="13.5" thickBot="1">
       <c r="A80" s="103" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="137"/>
       <c r="C80" s="103" t="s">
@@ -28654,7 +29132,7 @@
       <c r="C81" s="177"/>
       <c r="D81" s="178"/>
       <c r="E81" s="390" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F81" s="391"/>
       <c r="G81" s="392"/>
@@ -28694,13 +29172,13 @@
       <c r="C83" s="146"/>
       <c r="D83" s="111"/>
       <c r="E83" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="147" t="s">
-        <v>34</v>
-      </c>
       <c r="G83" s="189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H83" s="167"/>
       <c r="I83" s="151"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14322,7 +14322,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>05/05/2022</v>
+        <v>05/27/2022</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 22.1</v>
+        <v>EnergyPlus 22.2</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>03/29/22</v>
+        <v>09/27/22</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>
@@ -14322,7 +14322,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>05/27/2022</v>
+        <v>11/03/2022</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 22.2</v>
+        <v>EnergyPlus 23.1</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>09/27/22</v>
+        <v>03/28/23</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>
@@ -14322,7 +14322,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>11/03/2022</v>
+        <v>05/09/2023</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>09/27/22</v>
+        <v>09/27/2022</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 23.1</v>
+        <v>EnergyPlus 23.2</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>03/28/23</v>
+        <v>09/28/2023</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>
@@ -14322,7 +14322,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>05/09/2023</v>
+        <v>11/18/2023</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14322,7 +14322,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>11/03/2022</v>
+        <v>11/05/2024</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 22.2</v>
+        <v>EnergyPlus 23.1</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>09/27/2022</v>
+        <v>03/28/2023</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>
@@ -14648,7 +14648,7 @@
         <v>117</v>
       </c>
       <c r="B28" s="13">
-        <v>43.002</v>
+        <v>43.034</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -14663,7 +14663,7 @@
         <v>118</v>
       </c>
       <c r="B29" s="13">
-        <v>40.71</v>
+        <v>40.742</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -14678,7 +14678,7 @@
         <v>119</v>
       </c>
       <c r="B30" s="13">
-        <v>35.789</v>
+        <v>35.815</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -14876,7 +14876,7 @@
         <v>117</v>
       </c>
       <c r="B44" s="13">
-        <v>52.73</v>
+        <v>52.77</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -14891,7 +14891,7 @@
         <v>118</v>
       </c>
       <c r="B45" s="13">
-        <v>49.86</v>
+        <v>49.9</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -14906,7 +14906,7 @@
         <v>119</v>
       </c>
       <c r="B46" s="13">
-        <v>43.38</v>
+        <v>43.42</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -15104,7 +15104,7 @@
         <v>117</v>
       </c>
       <c r="B60" s="5">
-        <v>0.000178451</v>
+        <v>0.000178586</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -15119,7 +15119,7 @@
         <v>118</v>
       </c>
       <c r="B61" s="5">
-        <v>0.000168738</v>
+        <v>0.000168873</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -15134,7 +15134,7 @@
         <v>119</v>
       </c>
       <c r="B62" s="5">
-        <v>0.000146808</v>
+        <v>0.000146943</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -15380,7 +15380,7 @@
         <v>118</v>
       </c>
       <c r="B80" s="13">
-        <v>18.5369</v>
+        <v>18.5368</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -15395,7 +15395,7 @@
         <v>119</v>
       </c>
       <c r="B81" s="13">
-        <v>15.3792</v>
+        <v>15.3747</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 23.1</v>
+        <v>EnergyPlus 23.2</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>03/28/2023</v>
+        <v>09/28/2023</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>
@@ -14322,7 +14322,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>11/05/2024</v>
+        <v>11/06/2024</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>09/28/2023</v>
+        <v>03/28/2024</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>
@@ -14663,7 +14663,7 @@
         <v>118</v>
       </c>
       <c r="B29" s="13">
-        <v>40.742</v>
+        <v>40.743</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -14678,7 +14678,7 @@
         <v>119</v>
       </c>
       <c r="B30" s="13">
-        <v>35.815</v>
+        <v>35.821</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -15380,7 +15380,7 @@
         <v>118</v>
       </c>
       <c r="B80" s="13">
-        <v>18.5368</v>
+        <v>18.537</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -15395,7 +15395,7 @@
         <v>119</v>
       </c>
       <c r="B81" s="13">
-        <v>15.3747</v>
+        <v>15.3752</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -15611,7 +15611,7 @@
         <v>119</v>
       </c>
       <c r="B97" s="13">
-        <v>1.85761</v>
+        <v>1.85752</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 23.2</v>
+        <v>EnergyPlus 24.1</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 24.1</v>
+        <v>EnergyPlus 24.2</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 24.2</v>
+        <v>EnergyPlus 24.2.1</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>03/28/2024</v>
+        <v>10/03/24</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>
@@ -14322,7 +14322,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>11/06/2024</v>
+        <v>11/15/2024</v>
       </c>
       <c r="K5" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14264,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 24.2.1</v>
+        <v>EnergyPlus 25.1.0 , Bug Fix Edition</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -14283,7 +14283,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>10/03/24</v>
+        <v>05/28/25</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>54</v>
@@ -14322,7 +14322,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>11/15/2024</v>
+        <v>06/18/2025</v>
       </c>
       <c r="K5" s="109"/>
     </row>
